--- a/sim.xlsx
+++ b/sim.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intercambio\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pauli\Documents\GitHub\Simulacion-Red-Foraneos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76842EE4-0C77-4117-916D-28B6C639888A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B991A7-F01A-44F4-91CC-B062E3AF5040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{F8DD7FA3-D852-4E53-9B9C-4419DFBF8E21}"/>
+    <workbookView xWindow="4188" yWindow="0" windowWidth="17280" windowHeight="8880" xr2:uid="{F8DD7FA3-D852-4E53-9B9C-4419DFBF8E21}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -185,7 +196,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,7 +439,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -470,8 +481,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -499,11 +509,21 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="54">
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -514,6 +534,126 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -524,6 +664,46 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -534,6 +714,66 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -544,6 +784,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -624,6 +894,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -634,391 +914,121 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1053,10 +1063,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1378,70 +1384,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7F0D90-94C0-4DA3-934C-0130B9C0B21E}">
   <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="71" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="4" width="24.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" customWidth="1"/>
-    <col min="8" max="8" width="11.25" customWidth="1"/>
-    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.75" customWidth="1"/>
-    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.875" customWidth="1"/>
-    <col min="22" max="22" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.75" customWidth="1"/>
+    <col min="1" max="1" width="41.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" customWidth="1"/>
+    <col min="4" max="4" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.77734375" customWidth="1"/>
+    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.88671875" customWidth="1"/>
+    <col min="22" max="22" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15" thickBot="1"/>
-    <row r="2" spans="1:25" ht="16.5" thickBot="1">
+    <row r="1" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="33" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="4">
         <v>300</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="39"/>
+      <c r="J2" s="38"/>
       <c r="K2" s="5" t="s">
         <v>35</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="38" t="s">
+      <c r="M2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="39"/>
+      <c r="N2" s="38"/>
       <c r="O2" s="5" t="s">
         <v>35</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="38" t="s">
+      <c r="Q2" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="39"/>
+      <c r="R2" s="38"/>
       <c r="S2" s="5" t="s">
         <v>35</v>
       </c>
@@ -1449,42 +1455,42 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15.75" thickBot="1">
+    <row r="3" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="33" t="s">
         <v>43</v>
       </c>
       <c r="B3" s="27">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>31</v>
       </c>
       <c r="J3" s="8" t="str">
         <f ca="1">IF(RAND()&lt;$K$7,"ON","OFF")</f>
-        <v>OFF</v>
+        <v>ON</v>
       </c>
       <c r="K3" s="9">
         <f ca="1">IF(J3="OFF",0,5)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L3" s="10">
         <f ca="1">K3+K4+K5+K6</f>
-        <v>33.049071850088168</v>
+        <v>35.081811976333285</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>31</v>
       </c>
       <c r="N3" s="8" t="str">
         <f ca="1">IF(RAND()&lt;$K$7,"ON","OFF")</f>
-        <v>OFF</v>
+        <v>ON</v>
       </c>
       <c r="O3" s="9">
         <f ca="1">IF(N3="OFF",0,5)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P3" s="10">
         <f ca="1">O3+O4+O5+O6</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="Q3" s="7" t="s">
         <v>31</v>
@@ -1499,15 +1505,15 @@
       </c>
       <c r="T3" s="10">
         <f ca="1">S3+S4+S5+S6</f>
-        <v>25.326576609001251</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="15.75" thickBot="1">
+        <v>11.920270096476514</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="33" t="s">
         <v>45</v>
       </c>
       <c r="B4" s="3">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>32</v>
@@ -1518,7 +1524,7 @@
       </c>
       <c r="K4" s="9">
         <f ca="1">IF(J4="OFF",0,MOD(RAND()*100,30)+0.5)</f>
-        <v>30.049071850088168</v>
+        <v>30.081811976333285</v>
       </c>
       <c r="L4" s="11" t="s">
         <v>37</v>
@@ -1546,19 +1552,19 @@
       </c>
       <c r="S4" s="9">
         <f ca="1">IF(R4="OFF",0,MOD(RAND()*100,30)+0.5)</f>
-        <v>17.326576609001251</v>
+        <v>3.9202700964765143</v>
       </c>
       <c r="T4" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="15.75" thickBot="1">
-      <c r="A5" s="34" t="s">
+    <row r="5" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="33" t="s">
         <v>44</v>
       </c>
       <c r="B5" s="28">
         <f>B3*B4</f>
-        <v>0.44999999999999996</v>
+        <v>0.64000000000000012</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>33</v>
@@ -1580,11 +1586,11 @@
       </c>
       <c r="N5" s="8" t="str">
         <f ca="1">IF(RAND()&lt;$K$7,"ON","OFF")</f>
-        <v>OFF</v>
+        <v>ON</v>
       </c>
       <c r="O5" s="9">
         <f ca="1">IF(N5="OFF",0,3)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P5" s="11">
         <f>P7*0.8</f>
@@ -1595,35 +1601,35 @@
       </c>
       <c r="R5" s="8" t="str">
         <f ca="1">IF(RAND()&lt;$K$7,"ON","OFF")</f>
-        <v>OFF</v>
+        <v>ON</v>
       </c>
       <c r="S5" s="9">
         <f ca="1">IF(R5="OFF",0,3)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T5" s="11">
         <f>T7*0.8</f>
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="15.75" thickBot="1">
-      <c r="A6" s="34" t="s">
+    <row r="6" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="33" t="s">
         <v>46</v>
       </c>
       <c r="B6" s="29">
         <f>IF(B8="ON",1,(1-B4)*B3)</f>
-        <v>0.30000000000000004</v>
+        <v>0.15999999999999998</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>34</v>
       </c>
       <c r="J6" s="8" t="str">
         <f ca="1">IF(RAND()&lt;$K$7,"ON","OFF")</f>
-        <v>ON</v>
+        <v>OFF</v>
       </c>
       <c r="K6" s="13">
         <f ca="1">IF(J6="OFF",0,3)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L6" s="11" t="s">
         <v>38</v>
@@ -1647,61 +1653,61 @@
       </c>
       <c r="R6" s="8" t="str">
         <f ca="1">IF(RAND()&lt;$K$7,"ON","OFF")</f>
-        <v>ON</v>
+        <v>OFF</v>
       </c>
       <c r="S6" s="13">
         <f ca="1">IF(R6="OFF",0,3)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T6" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="15.75" thickBot="1">
+    <row r="7" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="33" t="s">
         <v>41</v>
       </c>
       <c r="B7" s="4">
-        <v>0</v>
-      </c>
-      <c r="I7" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="41"/>
+      <c r="J7" s="40"/>
       <c r="K7" s="2">
         <f>$B$5</f>
-        <v>0.44999999999999996</v>
+        <v>0.64000000000000012</v>
       </c>
       <c r="L7" s="1">
         <f>$W$16*(1/12)</f>
         <v>25</v>
       </c>
-      <c r="M7" s="40" t="s">
+      <c r="M7" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="N7" s="41"/>
+      <c r="N7" s="40"/>
       <c r="O7" s="2">
         <f>$B$5</f>
-        <v>0.44999999999999996</v>
+        <v>0.64000000000000012</v>
       </c>
       <c r="P7" s="1">
         <f>$W$16*(1/12)</f>
         <v>25</v>
       </c>
-      <c r="Q7" s="40" t="s">
+      <c r="Q7" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="R7" s="41"/>
+      <c r="R7" s="40"/>
       <c r="S7" s="2">
         <f>$B$5</f>
-        <v>0.44999999999999996</v>
+        <v>0.64000000000000012</v>
       </c>
       <c r="T7" s="1">
         <f>$W$16*(1/12)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="15" thickBot="1">
+    <row r="8" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="33" t="s">
         <v>42</v>
       </c>
@@ -1709,18 +1715,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="15.75">
+    <row r="9" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="35">
+      <c r="B9" s="34">
         <f ca="1">U16</f>
-        <v>174.858336591165</v>
-      </c>
-      <c r="D9" s="38" t="s">
+        <v>182.01686769712308</v>
+      </c>
+      <c r="D9" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="39"/>
+      <c r="E9" s="38"/>
       <c r="F9" s="5" t="s">
         <v>35</v>
       </c>
@@ -1728,37 +1734,37 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="15">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="35">
         <f ca="1">T24+P24+L24+G16+G10+L3+P3+T3</f>
-        <v>137.62403580710469</v>
+        <v>151.5957844016684</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="E10" s="8" t="str">
         <f ca="1">IF(RAND()&lt;$K$7,"ON","OFF")</f>
-        <v>OFF</v>
+        <v>ON</v>
       </c>
       <c r="F10" s="9">
         <f ca="1">IF(E10="OFF",0,5)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G10" s="10">
         <f ca="1">F10+F11+F12+F13</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" ht="15" customHeight="1" thickBot="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="35">
         <f ca="1">G22+G28</f>
-        <v>37.234300784060324</v>
+        <v>30.421083295454661</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>32</v>
@@ -1775,13 +1781,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="15.75" thickBot="1">
+    <row r="12" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="37">
+      <c r="B12" s="36">
         <f ca="1">B9/B2</f>
-        <v>0.58286112197054996</v>
+        <v>0.60672289232374355</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>33</v>
@@ -1820,17 +1826,17 @@
       <c r="R12" s="15"/>
       <c r="S12" s="16"/>
     </row>
-    <row r="13" spans="1:25" ht="15" customHeight="1" thickBot="1">
+    <row r="13" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D13" s="12" t="s">
         <v>34</v>
       </c>
       <c r="E13" s="8" t="str">
         <f ca="1">IF(RAND()&lt;$K$7,"ON","OFF")</f>
-        <v>ON</v>
+        <v>OFF</v>
       </c>
       <c r="F13" s="13">
         <f ca="1">IF(E13="OFF",0,3)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>38</v>
@@ -1862,18 +1868,18 @@
       <c r="S13" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="Y13" s="42" t="s">
+      <c r="Y13" s="41" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="15.75" thickBot="1">
-      <c r="D14" s="40" t="s">
+    <row r="14" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D14" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="41"/>
+      <c r="E14" s="40"/>
       <c r="F14" s="2">
         <f>$B$5</f>
-        <v>0.44999999999999996</v>
+        <v>0.64000000000000012</v>
       </c>
       <c r="G14" s="1">
         <f>$W$16*(1/12)</f>
@@ -1884,7 +1890,7 @@
       </c>
       <c r="J14" s="21">
         <f ca="1">G10+G16+G22+G28</f>
-        <v>51.234300784060324</v>
+        <v>49.133793738621634</v>
       </c>
       <c r="K14" s="22">
         <f>L14*0.8</f>
@@ -1902,7 +1908,7 @@
       </c>
       <c r="Q14" s="21">
         <f ca="1">L3+P3+T3+J14+Q20</f>
-        <v>174.858336591165</v>
+        <v>182.01686769712308</v>
       </c>
       <c r="R14" s="22">
         <f>S14*0.8</f>
@@ -1912,13 +1918,13 @@
         <f>W16</f>
         <v>300</v>
       </c>
-      <c r="Y14" s="43"/>
-    </row>
-    <row r="15" spans="1:25" ht="15.75">
-      <c r="D15" s="38" t="s">
+      <c r="Y14" s="42"/>
+    </row>
+    <row r="15" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D15" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="39"/>
+      <c r="E15" s="38"/>
       <c r="F15" s="5" t="s">
         <v>35</v>
       </c>
@@ -1934,27 +1940,27 @@
       <c r="W15" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="Y15" s="43"/>
-    </row>
-    <row r="16" spans="1:25" ht="15.75" thickBot="1">
+      <c r="Y15" s="42"/>
+    </row>
+    <row r="16" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D16" s="7" t="s">
         <v>31</v>
       </c>
       <c r="E16" s="8" t="str">
         <f ca="1">IF(RAND()&lt;$K$7,"ON","OFF")</f>
-        <v>ON</v>
+        <v>OFF</v>
       </c>
       <c r="F16" s="9">
         <f ca="1">IF(E16="OFF",0,5)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G16" s="10">
         <f ca="1">F16+F17+F18+F19</f>
-        <v>11</v>
+        <v>13.712710443166975</v>
       </c>
       <c r="U16" s="25">
         <f ca="1">T24++P24+L24+G28+G22+G16+G10+L3+P3+T3</f>
-        <v>174.858336591165</v>
+        <v>182.01686769712308</v>
       </c>
       <c r="V16" s="26">
         <f>W16*0.8</f>
@@ -1964,36 +1970,36 @@
         <f>B2</f>
         <v>300</v>
       </c>
-      <c r="Y16" s="43"/>
-    </row>
-    <row r="17" spans="4:25" ht="14.45" customHeight="1" thickBot="1">
+      <c r="Y16" s="42"/>
+    </row>
+    <row r="17" spans="4:25" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D17" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E17" s="8" t="str">
         <f ca="1">IF(RAND()&lt;$K$7,"ON","OFF")</f>
-        <v>OFF</v>
+        <v>ON</v>
       </c>
       <c r="F17" s="9">
         <f ca="1">IF(E17="OFF",0,MOD(RAND()*100,30)+0.5)</f>
-        <v>0</v>
+        <v>13.712710443166975</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="Y17" s="44"/>
-    </row>
-    <row r="18" spans="4:25" ht="15">
+      <c r="Y17" s="43"/>
+    </row>
+    <row r="18" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D18" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E18" s="8" t="str">
         <f ca="1">IF(RAND()&lt;$K$7,"ON","OFF")</f>
-        <v>ON</v>
+        <v>OFF</v>
       </c>
       <c r="F18" s="9">
         <f ca="1">IF(E18="OFF",0,3)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G18" s="11">
         <f>G20*0.8</f>
@@ -2011,17 +2017,17 @@
       <c r="R18" s="15"/>
       <c r="S18" s="16"/>
     </row>
-    <row r="19" spans="4:25" ht="15.75" thickBot="1">
+    <row r="19" spans="4:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D19" s="12" t="s">
         <v>34</v>
       </c>
       <c r="E19" s="8" t="str">
         <f ca="1">IF(RAND()&lt;$K$7,"ON","OFF")</f>
-        <v>ON</v>
+        <v>OFF</v>
       </c>
       <c r="F19" s="13">
         <f ca="1">IF(E19="OFF",0,3)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>38</v>
@@ -2042,14 +2048,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="4:25" ht="15.75" thickBot="1">
-      <c r="D20" s="40" t="s">
+    <row r="20" spans="4:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D20" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="41"/>
+      <c r="E20" s="40"/>
       <c r="F20" s="2">
         <f>$B$5</f>
-        <v>0.44999999999999996</v>
+        <v>0.64000000000000012</v>
       </c>
       <c r="G20" s="1">
         <f>$W$16*(1/12)</f>
@@ -2063,7 +2069,7 @@
       </c>
       <c r="Q20" s="21">
         <f ca="1">L24+P24+T24</f>
-        <v>62.248387348015257</v>
+        <v>74.880991885691643</v>
       </c>
       <c r="R20" s="22">
         <f>S20*0.8</f>
@@ -2074,11 +2080,11 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="4:25" ht="15.75">
-      <c r="D21" s="38" t="s">
+    <row r="21" spans="4:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D21" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="39"/>
+      <c r="E21" s="38"/>
       <c r="F21" s="5" t="s">
         <v>35</v>
       </c>
@@ -2086,7 +2092,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="4:25" ht="15.75" thickBot="1">
+    <row r="22" spans="4:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D22" s="7" t="s">
         <v>31</v>
       </c>
@@ -2097,45 +2103,45 @@
       </c>
       <c r="G22" s="10">
         <f ca="1">F22+F23+F24+F25</f>
-        <v>17.932524968152723</v>
-      </c>
-    </row>
-    <row r="23" spans="4:25" ht="15.75">
+        <v>30.421083295454661</v>
+      </c>
+    </row>
+    <row r="23" spans="4:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D23" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="9">
         <f ca="1">IF($B$8="ON",IF(RAND()&lt;$F$26,MOD(RAND()*100,10),0),IF(RAND()&lt;$F$26,MOD(RAND()*100,10)*MOD(RAND()*100,8),0))</f>
-        <v>15.575937667071997</v>
+        <v>0</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I23" s="38" t="s">
+      <c r="I23" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="J23" s="39"/>
+      <c r="J23" s="38"/>
       <c r="K23" s="5" t="s">
         <v>35</v>
       </c>
       <c r="L23" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="M23" s="38" t="s">
+      <c r="M23" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="N23" s="39"/>
+      <c r="N23" s="38"/>
       <c r="O23" s="5" t="s">
         <v>35</v>
       </c>
       <c r="P23" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q23" s="38" t="s">
+      <c r="Q23" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="R23" s="39"/>
+      <c r="R23" s="38"/>
       <c r="S23" s="5" t="s">
         <v>35</v>
       </c>
@@ -2143,7 +2149,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="4:25" ht="15">
+    <row r="24" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D24" s="7" t="s">
         <v>33</v>
       </c>
@@ -2161,30 +2167,30 @@
       </c>
       <c r="J24" s="8" t="str">
         <f ca="1">IF(RAND()&lt;$K$7,"ON","OFF")</f>
-        <v>ON</v>
+        <v>OFF</v>
       </c>
       <c r="K24" s="9">
         <f ca="1">IF(J24="OFF",0,5)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L24" s="10">
         <f ca="1">K24+K25+K26+K27</f>
-        <v>23.253140469218081</v>
+        <v>13.118516798969011</v>
       </c>
       <c r="M24" s="7" t="s">
         <v>31</v>
       </c>
       <c r="N24" s="8" t="str">
         <f ca="1">IF(RAND()&lt;$K$7,"ON","OFF")</f>
-        <v>OFF</v>
+        <v>ON</v>
       </c>
       <c r="O24" s="9">
         <f ca="1">IF(N24="OFF",0,5)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P24" s="10">
         <f ca="1">O24+O25+O26+O27</f>
-        <v>27.995246878797175</v>
+        <v>39.861560621089978</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>31</v>
@@ -2199,17 +2205,17 @@
       </c>
       <c r="T24" s="10">
         <f ca="1">S24+S25+S26+S27</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="4:25" ht="15.75" thickBot="1">
+        <v>21.900914465632649</v>
+      </c>
+    </row>
+    <row r="25" spans="4:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D25" s="12" t="s">
         <v>34</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="9">
         <f ca="1">IF($B$8="ON",IF(RAND()&lt;$F$26,MOD(RAND()*100,10),0),IF(RAND()&lt;$F$26,MOD(RAND()*100,10)*MOD(RAND()*100,8),0))</f>
-        <v>2.3565873010807268</v>
+        <v>30.421083295454661</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>38</v>
@@ -2223,7 +2229,7 @@
       </c>
       <c r="K25" s="9">
         <f ca="1">IF(J25="OFF",0,MOD(RAND()*100,30)+0.5)</f>
-        <v>15.253140469218081</v>
+        <v>10.118516798969011</v>
       </c>
       <c r="L25" s="11" t="s">
         <v>37</v>
@@ -2237,7 +2243,7 @@
       </c>
       <c r="O25" s="9">
         <f ca="1">IF(N25="OFF",0,MOD(RAND()*100,30)+0.5)</f>
-        <v>27.995246878797175</v>
+        <v>28.861560621089978</v>
       </c>
       <c r="P25" s="11" t="s">
         <v>37</v>
@@ -2247,24 +2253,24 @@
       </c>
       <c r="R25" s="8" t="str">
         <f ca="1">IF(RAND()&lt;$K$7,"ON","OFF")</f>
-        <v>OFF</v>
+        <v>ON</v>
       </c>
       <c r="S25" s="9">
         <f ca="1">IF(R25="OFF",0,MOD(RAND()*100,30)+0.5)</f>
-        <v>0</v>
+        <v>10.900914465632649</v>
       </c>
       <c r="T25" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="4:25" ht="15.75" thickBot="1">
-      <c r="D26" s="40" t="s">
+    <row r="26" spans="4:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D26" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="41"/>
+      <c r="E26" s="40"/>
       <c r="F26" s="2">
         <f>$B$6</f>
-        <v>0.30000000000000004</v>
+        <v>0.15999999999999998</v>
       </c>
       <c r="G26" s="1">
         <f>$W$16*(1/10)</f>
@@ -2290,11 +2296,11 @@
       </c>
       <c r="N26" s="8" t="str">
         <f ca="1">IF(RAND()&lt;$K$7,"ON","OFF")</f>
-        <v>OFF</v>
+        <v>ON</v>
       </c>
       <c r="O26" s="9">
         <f ca="1">IF(N26="OFF",0,3)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P26" s="11">
         <f>P28*0.8</f>
@@ -2316,11 +2322,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="4:25" ht="15" customHeight="1" thickBot="1">
-      <c r="D27" s="38" t="s">
+    <row r="27" spans="4:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D27" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="39"/>
+      <c r="E27" s="38"/>
       <c r="F27" s="5" t="s">
         <v>35</v>
       </c>
@@ -2346,11 +2352,11 @@
       </c>
       <c r="N27" s="8" t="str">
         <f ca="1">IF(RAND()&lt;$K$7,"ON","OFF")</f>
-        <v>OFF</v>
+        <v>ON</v>
       </c>
       <c r="O27" s="13">
         <f ca="1">IF(N27="OFF",0,3)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P27" s="11" t="s">
         <v>38</v>
@@ -2370,7 +2376,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="4:25" ht="16.5" thickBot="1">
+    <row r="28" spans="4:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D28" s="7" t="s">
         <v>31</v>
       </c>
@@ -2381,46 +2387,46 @@
       </c>
       <c r="G28" s="10">
         <f ca="1">F28+F29+F30+F31</f>
-        <v>19.3017758159076</v>
-      </c>
-      <c r="I28" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="J28" s="41"/>
+      <c r="J28" s="40"/>
       <c r="K28" s="2">
         <f>$B$5</f>
-        <v>0.44999999999999996</v>
+        <v>0.64000000000000012</v>
       </c>
       <c r="L28" s="1">
         <f>$W$16*(1/12)</f>
         <v>25</v>
       </c>
-      <c r="M28" s="40" t="s">
+      <c r="M28" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="N28" s="41"/>
+      <c r="N28" s="40"/>
       <c r="O28" s="2">
         <f>$B$5</f>
-        <v>0.44999999999999996</v>
+        <v>0.64000000000000012</v>
       </c>
       <c r="P28" s="1">
         <f>$W$16*(1/12)</f>
         <v>25</v>
       </c>
-      <c r="Q28" s="40" t="s">
+      <c r="Q28" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="R28" s="41"/>
+      <c r="R28" s="40"/>
       <c r="S28" s="2">
         <f>$B$5</f>
-        <v>0.44999999999999996</v>
+        <v>0.64000000000000012</v>
       </c>
       <c r="T28" s="1">
         <f>$W$16*(1/12)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="4:25" ht="15">
+    <row r="29" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D29" s="7" t="s">
         <v>32</v>
       </c>
@@ -2433,21 +2439,21 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="4:25" ht="15">
+    <row r="30" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D30" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="9">
         <f ca="1">IF($B$8="ON",IF(RAND()&lt;$F$26,MOD(RAND()*100,30)+18,0),IF(RAND()&lt;$F$26,MOD(RAND()*100,10)*MOD(RAND()*100,8),0))</f>
-        <v>19.3017758159076</v>
+        <v>0</v>
       </c>
       <c r="G30" s="11">
         <f>G32*0.8</f>
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="4:25" ht="15.75" thickBot="1">
+    <row r="31" spans="4:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D31" s="12" t="s">
         <v>34</v>
       </c>
@@ -2460,14 +2466,14 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="4:25" ht="15.75" thickBot="1">
-      <c r="D32" s="40" t="s">
+    <row r="32" spans="4:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D32" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="41"/>
+      <c r="E32" s="40"/>
       <c r="F32" s="2">
         <f>$B$6</f>
-        <v>0.30000000000000004</v>
+        <v>0.15999999999999998</v>
       </c>
       <c r="G32" s="1">
         <f>$W$16*(1/10)</f>
@@ -2504,233 +2510,233 @@
       <formula>"ON"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B12">
+    <cfRule type="cellIs" dxfId="52" priority="2" operator="lessThan">
+      <formula>80</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="3" operator="equal">
+      <formula>80</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="1" operator="greaterThan">
+      <formula>80</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D14 F14">
-    <cfRule type="cellIs" dxfId="52" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="51" operator="equal">
       <formula>"ON"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20 F20">
-    <cfRule type="cellIs" dxfId="51" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="45" operator="equal">
       <formula>"ON"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32 F32">
-    <cfRule type="cellIs" dxfId="50" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="33" operator="equal">
       <formula>"ON"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:F13">
-    <cfRule type="cellIs" dxfId="49" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="21" operator="equal">
       <formula>"ON"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:F19">
-    <cfRule type="cellIs" dxfId="48" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="20" operator="equal">
       <formula>"ON"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:F25 D26 F26">
-    <cfRule type="cellIs" dxfId="47" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="39" operator="equal">
       <formula>"ON"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D28:F31">
+    <cfRule type="cellIs" dxfId="43" priority="5" operator="equal">
+      <formula>"ON"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I28 K28">
-    <cfRule type="cellIs" dxfId="46" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="57" operator="equal">
       <formula>"ON"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:K6 I7 K7">
-    <cfRule type="cellIs" dxfId="45" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="75" operator="equal">
       <formula>"ON"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24:K27">
-    <cfRule type="cellIs" dxfId="44" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="24" operator="equal">
       <formula>"ON"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14:L14">
-    <cfRule type="cellIs" dxfId="43" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="10" operator="lessThan">
       <formula>$J$14+1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="11" operator="greaterThan">
       <formula>$J$14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="cellIs" dxfId="41" priority="71" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="71" operator="greaterThan">
       <formula>L3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="73" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="73" operator="lessThan">
       <formula>L3+1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7 G14 G26 G32">
-    <cfRule type="cellIs" dxfId="39" priority="70" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="70" operator="greaterThan">
       <formula>$L$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="72" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="72" operator="lessThan">
       <formula>$L$3+1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26">
-    <cfRule type="cellIs" dxfId="37" priority="53" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="53" operator="greaterThan">
       <formula>L24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="55" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="55" operator="lessThan">
       <formula>L24+1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L28">
-    <cfRule type="cellIs" dxfId="35" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="18" operator="greaterThan">
       <formula>L24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="19" operator="lessThan">
       <formula>L24+1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7 O7">
-    <cfRule type="cellIs" dxfId="33" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="87" operator="equal">
       <formula>"ON"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M28 O28">
-    <cfRule type="cellIs" dxfId="32" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="69" operator="equal">
       <formula>"ON"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:O6">
-    <cfRule type="cellIs" dxfId="31" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="26" operator="equal">
       <formula>"ON"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M24:O27">
-    <cfRule type="cellIs" dxfId="30" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="23" operator="equal">
       <formula>"ON"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5 G12 G18 G24 G30">
-    <cfRule type="cellIs" dxfId="29" priority="83" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="83" operator="greaterThan">
       <formula>G3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="85" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="85" operator="lessThan">
       <formula>G3+1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P7 G20">
-    <cfRule type="cellIs" dxfId="27" priority="82" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="82" operator="greaterThan">
       <formula>G3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="84" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="84" operator="lessThan">
       <formula>G3+1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P26">
-    <cfRule type="cellIs" dxfId="25" priority="65" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="67" operator="lessThan">
+      <formula>P24+1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="65" operator="greaterThan">
       <formula>P24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="67" operator="lessThan">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P28">
+    <cfRule type="cellIs" dxfId="19" priority="16" operator="greaterThan">
+      <formula>P24</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="17" operator="lessThan">
       <formula>P24+1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P28">
-    <cfRule type="cellIs" dxfId="23" priority="16" operator="greaterThan">
-      <formula>P24</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="17" operator="lessThan">
-      <formula>P24+1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="Q7 S7">
-    <cfRule type="cellIs" dxfId="21" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="81" operator="equal">
       <formula>"ON"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q28 S28">
-    <cfRule type="cellIs" dxfId="20" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="63" operator="equal">
       <formula>"ON"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:S6">
-    <cfRule type="cellIs" dxfId="19" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="25" operator="equal">
       <formula>"ON"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q24:S27">
-    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="22" operator="equal">
       <formula>"ON"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R14:S14">
-    <cfRule type="cellIs" dxfId="17" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="greaterThan">
+      <formula>Q14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="lessThan">
       <formula>Q14+1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="9" operator="greaterThan">
-      <formula>Q14</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R20:S20">
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="lessThan">
       <formula>Q20+1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="greaterThan">
       <formula>Q20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5">
-    <cfRule type="cellIs" dxfId="13" priority="77" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="79" operator="lessThan">
+      <formula>T3+1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="77" operator="greaterThan">
       <formula>T3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="79" operator="lessThan">
-      <formula>T3+1</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7">
-    <cfRule type="cellIs" dxfId="11" priority="76" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="78" operator="lessThan">
+      <formula>$L$3+1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="76" operator="greaterThan">
       <formula>$L$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="78" operator="lessThan">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T26">
+    <cfRule type="cellIs" dxfId="5" priority="59" operator="greaterThan">
+      <formula>T24</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="61" operator="lessThan">
+      <formula>T24+1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T28">
+    <cfRule type="cellIs" dxfId="3" priority="60" operator="lessThan">
       <formula>$L$3+1</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T26">
-    <cfRule type="cellIs" dxfId="9" priority="59" operator="greaterThan">
-      <formula>T24</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="61" operator="lessThan">
-      <formula>T24+1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T28">
-    <cfRule type="cellIs" dxfId="7" priority="58" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="58" operator="greaterThan">
       <formula>$L$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="60" operator="lessThan">
-      <formula>$L$3+1</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V16:W16">
-    <cfRule type="cellIs" dxfId="5" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="13" operator="lessThan">
+      <formula>$U$16+1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="greaterThan">
       <formula>$U$16</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="13" operator="lessThan">
-      <formula>$U$16+1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28:F31">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
-      <formula>"ON"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>80</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
-      <formula>80</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
-      <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -2763,84 +2769,84 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>30</v>
       </c>

--- a/sim.xlsx
+++ b/sim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pauli\Documents\GitHub\Simulacion-Red-Foraneos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B991A7-F01A-44F4-91CC-B062E3AF5040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4262D4AC-F866-494B-84FC-46682B809B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4188" yWindow="0" windowWidth="17280" windowHeight="8880" xr2:uid="{F8DD7FA3-D852-4E53-9B9C-4419DFBF8E21}"/>
+    <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8880" xr2:uid="{F8DD7FA3-D852-4E53-9B9C-4419DFBF8E21}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="51">
   <si>
     <t>Servidor Total Play</t>
   </si>
@@ -228,7 +228,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,8 +271,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAEAEA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -434,19 +440,239 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashDot">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashDot">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashDot">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="mediumDashDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashDot">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="mediumDashDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="mediumDashDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashDot">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="mediumDashDot">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="mediumDashDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="mediumDashDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashDot">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashDot">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashDot">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="mediumDashDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="mediumDashDot">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashDot">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashDot">
+        <color indexed="64"/>
+      </right>
+      <top style="mediumDashDot">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashDot">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="mediumDashDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -454,8 +680,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -466,7 +690,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -475,35 +698,92 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="8" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="8" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1054,6 +1334,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFEAEAEA"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1382,10 +1667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7F0D90-94C0-4DA3-934C-0130B9C0B21E}">
-  <dimension ref="A1:Y32"/>
+  <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1397,1120 +1682,1428 @@
     <col min="5" max="5" width="8.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.77734375" customWidth="1"/>
-    <col min="8" max="8" width="11.21875" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.77734375" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.88671875" customWidth="1"/>
-    <col min="22" max="22" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.77734375" customWidth="1"/>
+    <col min="8" max="8" width="5.21875" customWidth="1"/>
+    <col min="9" max="9" width="6.44140625" customWidth="1"/>
+    <col min="10" max="10" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.77734375" customWidth="1"/>
+    <col min="14" max="14" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.88671875" customWidth="1"/>
+    <col min="23" max="23" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33" t="s">
+    <row r="1" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2">
+        <v>300</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="40"/>
+    </row>
+    <row r="3" spans="1:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="4">
-        <v>300</v>
-      </c>
-      <c r="I2" s="37" t="s">
+      <c r="B3" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="5" t="s">
+      <c r="K3" s="75"/>
+      <c r="L3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="37" t="s">
+      <c r="N3" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="38"/>
-      <c r="O2" s="5" t="s">
+      <c r="O3" s="75"/>
+      <c r="P3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="37" t="s">
+      <c r="R3" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="5" t="s">
+      <c r="S3" s="75"/>
+      <c r="T3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="U3" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="33" t="s">
+      <c r="V3" s="43"/>
+    </row>
+    <row r="4" spans="1:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B4" s="27">
         <v>0.8</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="C4" s="41"/>
+      <c r="D4" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="75"/>
+      <c r="F4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="68"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="8" t="str">
-        <f ca="1">IF(RAND()&lt;$K$7,"ON","OFF")</f>
+      <c r="K4" s="34" t="str">
+        <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
         <v>ON</v>
       </c>
-      <c r="K3" s="9">
-        <f ca="1">IF(J3="OFF",0,5)</f>
+      <c r="L4" s="35">
+        <f ca="1">IF(K4="OFF",0,5)</f>
         <v>5</v>
       </c>
-      <c r="L3" s="10">
-        <f ca="1">K3+K4+K5+K6</f>
-        <v>35.081811976333285</v>
-      </c>
-      <c r="M3" s="7" t="s">
+      <c r="M4" s="6">
+        <f ca="1">L4+L5+L6+L7</f>
+        <v>23.438953710073406</v>
+      </c>
+      <c r="N4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="8" t="str">
-        <f ca="1">IF(RAND()&lt;$K$7,"ON","OFF")</f>
+      <c r="O4" s="34" t="str">
+        <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
         <v>ON</v>
       </c>
-      <c r="O3" s="9">
-        <f ca="1">IF(N3="OFF",0,5)</f>
+      <c r="P4" s="35">
+        <f ca="1">IF(O4="OFF",0,5)</f>
         <v>5</v>
       </c>
-      <c r="P3" s="10">
-        <f ca="1">O3+O4+O5+O6</f>
-        <v>11</v>
-      </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q4" s="6">
+        <f ca="1">P4+P5+P6+P7</f>
+        <v>5</v>
+      </c>
+      <c r="R4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="8" t="str">
-        <f ca="1">IF(RAND()&lt;$K$7,"ON","OFF")</f>
+      <c r="S4" s="34" t="str">
+        <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
+        <v>OFF</v>
+      </c>
+      <c r="T4" s="35">
+        <f ca="1">IF(S4="OFF",0,5)</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="6">
+        <f ca="1">T4+T5+T6+T7</f>
+        <v>25.640445533246826</v>
+      </c>
+      <c r="V4" s="43"/>
+    </row>
+    <row r="5" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="C5" s="41"/>
+      <c r="D5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="34" t="str">
+        <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
+        <v>OFF</v>
+      </c>
+      <c r="F5" s="35">
+        <f ca="1">IF(E5="OFF",0,5)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <f ca="1">F5+F6+F7+F8</f>
+        <v>25.238944408885274</v>
+      </c>
+      <c r="H5" s="66"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="34" t="str">
+        <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
         <v>ON</v>
       </c>
-      <c r="S3" s="9">
-        <f ca="1">IF(R3="OFF",0,5)</f>
+      <c r="L5" s="35">
+        <f ca="1">IF(K5="OFF",0,MOD(RAND()*100,30)+0.5)</f>
+        <v>15.438953710073406</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="34" t="str">
+        <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
+        <v>OFF</v>
+      </c>
+      <c r="P5" s="35">
+        <f ca="1">IF(O5="OFF",0,MOD(RAND()*100,30)+0.5)</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" s="34" t="str">
+        <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
+        <v>ON</v>
+      </c>
+      <c r="T5" s="35">
+        <f ca="1">IF(S5="OFF",0,MOD(RAND()*100,30)+0.5)</f>
+        <v>22.640445533246826</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="V5" s="43"/>
+    </row>
+    <row r="6" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="29">
+        <f>B4*B5</f>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="C6" s="41"/>
+      <c r="D6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="34" t="str">
+        <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
+        <v>ON</v>
+      </c>
+      <c r="F6" s="35">
+        <f ca="1">IF(E6="OFF",0,MOD(RAND()*100,30)+0.5)</f>
+        <v>19.238944408885274</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="67"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="34" t="str">
+        <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
+        <v>OFF</v>
+      </c>
+      <c r="L6" s="35">
+        <f ca="1">IF(K6="OFF",0,3)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <f>M8*0.8</f>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="34" t="str">
+        <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
+        <v>OFF</v>
+      </c>
+      <c r="P6" s="35">
+        <f ca="1">IF(O6="OFF",0,3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
+        <f>Q8*0.8</f>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6" s="34" t="str">
+        <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
+        <v>OFF</v>
+      </c>
+      <c r="T6" s="35">
+        <f ca="1">IF(S6="OFF",0,3)</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="7">
+        <f>U8*0.8</f>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="V6" s="43"/>
+    </row>
+    <row r="7" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="30">
+        <v>0</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="34" t="str">
+        <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
+        <v>ON</v>
+      </c>
+      <c r="F7" s="35">
+        <f ca="1">IF(E7="OFF",0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="G7" s="7">
+        <f>G9*0.8</f>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="H7" s="67"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="34" t="str">
+        <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
+        <v>ON</v>
+      </c>
+      <c r="L7" s="9">
+        <f ca="1">IF(K7="OFF",0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" s="34" t="str">
+        <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
+        <v>OFF</v>
+      </c>
+      <c r="P7" s="9">
+        <f ca="1">IF(O7="OFF",0,3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="S7" s="34" t="str">
+        <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
+        <v>ON</v>
+      </c>
+      <c r="T7" s="9">
+        <f ca="1">IF(S7="OFF",0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="U7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="V7" s="43"/>
+    </row>
+    <row r="8" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="41"/>
+      <c r="D8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="34" t="str">
+        <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
+        <v>ON</v>
+      </c>
+      <c r="F8" s="9">
+        <f ca="1">IF(E8="OFF",0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="67"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="73"/>
+      <c r="L8" s="2">
+        <f>$B$6</f>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="M8" s="1">
+        <f>$Z$14*(1/12)</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="N8" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="73"/>
+      <c r="P8" s="2">
+        <f>$B$6</f>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="Q8" s="1">
+        <f>$Z$14*(1/12)</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="R8" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="S8" s="73"/>
+      <c r="T8" s="2">
+        <f>$B$6</f>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="U8" s="1">
+        <f>$Z$14*(1/12)</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="V8" s="43"/>
+    </row>
+    <row r="9" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="41"/>
+      <c r="D9" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="73"/>
+      <c r="F9" s="2">
+        <f>$B$6</f>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="G9" s="1">
+        <f>$Z$14*(1/12)</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="H9" s="67"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="43"/>
+    </row>
+    <row r="10" spans="1:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="31">
+        <f ca="1">X14</f>
+        <v>141.45739935999495</v>
+      </c>
+      <c r="C10" s="41"/>
+      <c r="D10" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="75"/>
+      <c r="F10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="67"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="43"/>
+      <c r="AA10" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="77"/>
+    </row>
+    <row r="11" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="32">
+        <f ca="1">U25+Q25+M25+G11+G5+M4+Q4+U4</f>
+        <v>141.45739935999495</v>
+      </c>
+      <c r="C11" s="41"/>
+      <c r="D11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="34" t="str">
+        <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
+        <v>OFF</v>
+      </c>
+      <c r="F11" s="35">
+        <f ca="1">IF(E11="OFF",0,5)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <f ca="1">F11+F12+F13+F14</f>
+        <v>15.943012378990858</v>
+      </c>
+      <c r="H11" s="69"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="62"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="45"/>
+      <c r="Z11" s="36"/>
+      <c r="AA11" s="78"/>
+      <c r="AB11" s="79"/>
+    </row>
+    <row r="12" spans="1:28" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="32">
+        <f ca="1">G17+G23</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="41"/>
+      <c r="D12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="34" t="str">
+        <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
+        <v>ON</v>
+      </c>
+      <c r="F12" s="35">
+        <f ca="1">IF(E12="OFF",0,MOD(RAND()*100,30)+0.5)</f>
+        <v>12.943012378990858</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="67"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="43"/>
+      <c r="W12" s="50"/>
+      <c r="X12" s="49"/>
+      <c r="Y12" s="49"/>
+      <c r="AA12" s="78"/>
+      <c r="AB12" s="79"/>
+    </row>
+    <row r="13" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="33">
+        <f ca="1">B10/B3</f>
+        <v>707.28699679997476</v>
+      </c>
+      <c r="C13" s="41"/>
+      <c r="D13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="34" t="str">
+        <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
+        <v>ON</v>
+      </c>
+      <c r="F13" s="35">
+        <f ca="1">IF(E13="OFF",0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="G13" s="7">
+        <f>G15*0.8</f>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="H13" s="67"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="T3" s="10">
-        <f ca="1">S3+S4+S5+S6</f>
-        <v>11.920270096476514</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="I4" s="7" t="s">
+      <c r="K13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="12"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="R13" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="S13" s="11"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="48"/>
+      <c r="X13" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y13" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z13" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA13" s="78"/>
+      <c r="AB13" s="79"/>
+    </row>
+    <row r="14" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="41"/>
+      <c r="D14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="34" t="str">
+        <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
+        <v>OFF</v>
+      </c>
+      <c r="F14" s="9">
+        <f ca="1">IF(E14="OFF",0,3)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="67"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" s="41"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="R14" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="S14" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="T14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="U14" s="42"/>
+      <c r="V14" s="43"/>
+      <c r="X14" s="20">
+        <f ca="1">U25++Q25+M25+G23+G17+G11+G5+M4+Q4+U4</f>
+        <v>141.45739935999495</v>
+      </c>
+      <c r="Y14" s="21">
+        <f>Z14*0.8</f>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="Z14" s="21">
+        <f>B3</f>
+        <v>0.2</v>
+      </c>
+      <c r="AA14" s="80"/>
+      <c r="AB14" s="81"/>
+    </row>
+    <row r="15" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="41"/>
+      <c r="D15" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="73"/>
+      <c r="F15" s="2">
+        <f>$B$6</f>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="G15" s="1">
+        <f>$Z$14*(1/12)</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="H15" s="67"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="K15" s="16">
+        <f ca="1">G5+G11+G17+G23</f>
+        <v>41.181956787876132</v>
+      </c>
+      <c r="L15" s="17">
+        <f>M15*0.8</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="M15" s="18">
+        <f>Z14*5/12</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="16">
+        <f ca="1">M4+Q4+U4+K15+R21</f>
+        <v>141.45739935999495</v>
+      </c>
+      <c r="S15" s="17">
+        <f>T15*0.8</f>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="T15" s="18">
+        <f>Z14</f>
+        <v>0.2</v>
+      </c>
+      <c r="U15" s="42"/>
+      <c r="V15" s="43"/>
+    </row>
+    <row r="16" spans="1:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="41"/>
+      <c r="D16" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="75"/>
+      <c r="F16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="67"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="43"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C17" s="41"/>
+      <c r="D17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="34"/>
+      <c r="F17" s="35">
+        <f>IF($B$9="ON",10,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
+        <f ca="1">F17+F18+F19+F20</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="69"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="43"/>
+    </row>
+    <row r="18" spans="3:22" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="41"/>
+      <c r="D18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="8" t="str">
-        <f ca="1">IF(RAND()&lt;$K$7,"ON","OFF")</f>
+      <c r="E18" s="34"/>
+      <c r="F18" s="35">
+        <f ca="1">IF($B$9="ON",IF(RAND()&lt;$F$21,MOD(RAND()*100,10),0),IF(RAND()&lt;$F$21,MOD(RAND()*100,10)*MOD(RAND()*100,8),0))</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="67"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="47"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="43"/>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C19" s="41"/>
+      <c r="D19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="34"/>
+      <c r="F19" s="35">
+        <f ca="1">IF($B$9="ON",IF(RAND()&lt;$F$21,MOD(RAND()*100,30)+18,0),IF(RAND()&lt;$F$21,MOD(RAND()*100,10)*MOD(RAND()*100,8),0))</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="7">
+        <f>G21*0.8</f>
+        <v>1.6000000000000004E-2</v>
+      </c>
+      <c r="H19" s="67"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="R19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="S19" s="11"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="43"/>
+    </row>
+    <row r="20" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="41"/>
+      <c r="D20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="34"/>
+      <c r="F20" s="35">
+        <f ca="1">IF($B$9="ON",IF(RAND()&lt;$F$21,MOD(RAND()*100,10),0),IF(RAND()&lt;$F$21,MOD(RAND()*100,10)*MOD(RAND()*100,8),0))</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="67"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="R20" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="S20" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="T20" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="U20" s="42"/>
+      <c r="V20" s="43"/>
+    </row>
+    <row r="21" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="41"/>
+      <c r="D21" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="73"/>
+      <c r="F21" s="2">
+        <f>$B$7</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <f>$Z$14*(1/10)</f>
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="H21" s="67"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q21" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="R21" s="16">
+        <f ca="1">M25+Q25+U25</f>
+        <v>46.196043328798595</v>
+      </c>
+      <c r="S21" s="17">
+        <f>T21*0.8</f>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="T21" s="18">
+        <f>Z14*1/4</f>
+        <v>0.05</v>
+      </c>
+      <c r="U21" s="42"/>
+      <c r="V21" s="43"/>
+    </row>
+    <row r="22" spans="3:22" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="41"/>
+      <c r="D22" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="75"/>
+      <c r="F22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="70"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="57"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="42"/>
+      <c r="U22" s="42"/>
+      <c r="V22" s="43"/>
+    </row>
+    <row r="23" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="41"/>
+      <c r="D23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="34"/>
+      <c r="F23" s="35">
+        <f>IF($B$9="ON",10,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="6">
+        <f ca="1">F23+F24+F25+F26</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="71"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="58"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="54"/>
+      <c r="S23" s="53"/>
+      <c r="T23" s="42"/>
+      <c r="U23" s="42"/>
+      <c r="V23" s="43"/>
+    </row>
+    <row r="24" spans="3:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C24" s="41"/>
+      <c r="D24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="34"/>
+      <c r="F24" s="35">
+        <f ca="1">IF($B$9="ON",IF(RAND()&lt;$F$21,MOD(RAND()*100,10),0),IF(RAND()&lt;$F$21,MOD(RAND()*100,10)*MOD(RAND()*100,8),0))</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" s="64"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="75"/>
+      <c r="L24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N24" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="O24" s="75"/>
+      <c r="P24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R24" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="S24" s="75"/>
+      <c r="T24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V24" s="43"/>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C25" s="41"/>
+      <c r="D25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="34"/>
+      <c r="F25" s="35">
+        <f ca="1">IF($B$9="ON",IF(RAND()&lt;$F$21,MOD(RAND()*100,30)+18,0),IF(RAND()&lt;$F$21,MOD(RAND()*100,10)*MOD(RAND()*100,8),0))</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="7">
+        <f>G27*0.8</f>
+        <v>1.6000000000000004E-2</v>
+      </c>
+      <c r="H25" s="64"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K25" s="34" t="str">
+        <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
         <v>ON</v>
       </c>
-      <c r="K4" s="9">
-        <f ca="1">IF(J4="OFF",0,MOD(RAND()*100,30)+0.5)</f>
-        <v>30.081811976333285</v>
-      </c>
-      <c r="L4" s="11" t="s">
+      <c r="L25" s="35">
+        <f ca="1">IF(K25="OFF",0,5)</f>
+        <v>5</v>
+      </c>
+      <c r="M25" s="6">
+        <f ca="1">L25+L26+L27+L28</f>
+        <v>10.454236669892623</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O25" s="34" t="str">
+        <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
+        <v>OFF</v>
+      </c>
+      <c r="P25" s="35">
+        <f ca="1">IF(O25="OFF",0,5)</f>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="6">
+        <f ca="1">P25+P26+P27+P28</f>
+        <v>8.5430743978617301</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="S25" s="34" t="str">
+        <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
+        <v>ON</v>
+      </c>
+      <c r="T25" s="35">
+        <f ca="1">IF(S25="OFF",0,5)</f>
+        <v>5</v>
+      </c>
+      <c r="U25" s="6">
+        <f ca="1">T25+T26+T27+T28</f>
+        <v>27.198732261044242</v>
+      </c>
+      <c r="V25" s="43"/>
+    </row>
+    <row r="26" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="41"/>
+      <c r="D26" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="34"/>
+      <c r="F26" s="35">
+        <f ca="1">IF($B$9="ON",IF(RAND()&lt;$F$21,MOD(RAND()*100,10),0),IF(RAND()&lt;$F$21,MOD(RAND()*100,10)*MOD(RAND()*100,8),0))</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" s="64"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26" s="34" t="str">
+        <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
+        <v>ON</v>
+      </c>
+      <c r="L26" s="35">
+        <f ca="1">IF(K26="OFF",0,MOD(RAND()*100,30)+0.5)</f>
+        <v>2.454236669892623</v>
+      </c>
+      <c r="M26" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="N26" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="8" t="str">
-        <f ca="1">IF(RAND()&lt;$K$7,"ON","OFF")</f>
+      <c r="O26" s="34" t="str">
+        <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
+        <v>ON</v>
+      </c>
+      <c r="P26" s="35">
+        <f ca="1">IF(O26="OFF",0,MOD(RAND()*100,30)+0.5)</f>
+        <v>8.5430743978617301</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="R26" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S26" s="34" t="str">
+        <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
+        <v>ON</v>
+      </c>
+      <c r="T26" s="35">
+        <f ca="1">IF(S26="OFF",0,MOD(RAND()*100,30)+0.5)</f>
+        <v>16.198732261044242</v>
+      </c>
+      <c r="U26" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="V26" s="43"/>
+    </row>
+    <row r="27" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="41"/>
+      <c r="D27" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="73"/>
+      <c r="F27" s="2">
+        <f>$B$7</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <f>$Z$14*(1/10)</f>
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="H27" s="64"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K27" s="34" t="str">
+        <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
         <v>OFF</v>
       </c>
-      <c r="O4" s="9">
-        <f ca="1">IF(N4="OFF",0,MOD(RAND()*100,30)+0.5)</f>
+      <c r="L27" s="35">
+        <f ca="1">IF(K27="OFF",0,3)</f>
         <v>0</v>
       </c>
-      <c r="P4" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="R4" s="8" t="str">
-        <f ca="1">IF(RAND()&lt;$K$7,"ON","OFF")</f>
+      <c r="M27" s="7">
+        <f>M29*0.8</f>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O27" s="34" t="str">
+        <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
+        <v>OFF</v>
+      </c>
+      <c r="P27" s="35">
+        <f ca="1">IF(O27="OFF",0,3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="7">
+        <f>Q29*0.8</f>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="R27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S27" s="34" t="str">
+        <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
         <v>ON</v>
       </c>
-      <c r="S4" s="9">
-        <f ca="1">IF(R4="OFF",0,MOD(RAND()*100,30)+0.5)</f>
-        <v>3.9202700964765143</v>
-      </c>
-      <c r="T4" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="28">
-        <f>B3*B4</f>
+      <c r="T27" s="35">
+        <f ca="1">IF(S27="OFF",0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="U27" s="7">
+        <f>U29*0.8</f>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="V27" s="43"/>
+    </row>
+    <row r="28" spans="3:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="41"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K28" s="34" t="str">
+        <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
+        <v>ON</v>
+      </c>
+      <c r="L28" s="9">
+        <f ca="1">IF(K28="OFF",0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="O28" s="34" t="str">
+        <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
+        <v>OFF</v>
+      </c>
+      <c r="P28" s="9">
+        <f ca="1">IF(O28="OFF",0,3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="R28" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="S28" s="34" t="str">
+        <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
+        <v>ON</v>
+      </c>
+      <c r="T28" s="9">
+        <f ca="1">IF(S28="OFF",0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="U28" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="V28" s="43"/>
+    </row>
+    <row r="29" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="41"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="K29" s="73"/>
+      <c r="L29" s="2">
+        <f>$B$6</f>
         <v>0.64000000000000012</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="8" t="str">
-        <f ca="1">IF(RAND()&lt;$K$7,"ON","OFF")</f>
-        <v>OFF</v>
-      </c>
-      <c r="K5" s="9">
-        <f ca="1">IF(J5="OFF",0,3)</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="11">
-        <f>L7*0.8</f>
-        <v>20</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="8" t="str">
-        <f ca="1">IF(RAND()&lt;$K$7,"ON","OFF")</f>
-        <v>ON</v>
-      </c>
-      <c r="O5" s="9">
-        <f ca="1">IF(N5="OFF",0,3)</f>
-        <v>3</v>
-      </c>
-      <c r="P5" s="11">
-        <f>P7*0.8</f>
-        <v>20</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="R5" s="8" t="str">
-        <f ca="1">IF(RAND()&lt;$K$7,"ON","OFF")</f>
-        <v>ON</v>
-      </c>
-      <c r="S5" s="9">
-        <f ca="1">IF(R5="OFF",0,3)</f>
-        <v>3</v>
-      </c>
-      <c r="T5" s="11">
-        <f>T7*0.8</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="29">
-        <f>IF(B8="ON",1,(1-B4)*B3)</f>
-        <v>0.15999999999999998</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="8" t="str">
-        <f ca="1">IF(RAND()&lt;$K$7,"ON","OFF")</f>
-        <v>OFF</v>
-      </c>
-      <c r="K6" s="13">
-        <f ca="1">IF(J6="OFF",0,3)</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="N6" s="8" t="str">
-        <f ca="1">IF(RAND()&lt;$K$7,"ON","OFF")</f>
-        <v>ON</v>
-      </c>
-      <c r="O6" s="13">
-        <f ca="1">IF(N6="OFF",0,3)</f>
-        <v>3</v>
-      </c>
-      <c r="P6" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="R6" s="8" t="str">
-        <f ca="1">IF(RAND()&lt;$K$7,"ON","OFF")</f>
-        <v>OFF</v>
-      </c>
-      <c r="S6" s="13">
-        <f ca="1">IF(R6="OFF",0,3)</f>
-        <v>0</v>
-      </c>
-      <c r="T6" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="4">
-        <v>2</v>
-      </c>
-      <c r="I7" s="39" t="s">
+      <c r="M29" s="1">
+        <f>$Z$14*(1/12)</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="N29" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="40"/>
-      <c r="K7" s="2">
-        <f>$B$5</f>
+      <c r="O29" s="73"/>
+      <c r="P29" s="2">
+        <f>$B$6</f>
         <v>0.64000000000000012</v>
       </c>
-      <c r="L7" s="1">
-        <f>$W$16*(1/12)</f>
-        <v>25</v>
-      </c>
-      <c r="M7" s="39" t="s">
+      <c r="Q29" s="1">
+        <f>$Z$14*(1/12)</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="R29" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="N7" s="40"/>
-      <c r="O7" s="2">
-        <f>$B$5</f>
+      <c r="S29" s="73"/>
+      <c r="T29" s="2">
+        <f>$B$6</f>
         <v>0.64000000000000012</v>
       </c>
-      <c r="P7" s="1">
-        <f>$W$16*(1/12)</f>
-        <v>25</v>
-      </c>
-      <c r="Q7" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="R7" s="40"/>
-      <c r="S7" s="2">
-        <f>$B$5</f>
-        <v>0.64000000000000012</v>
-      </c>
-      <c r="T7" s="1">
-        <f>$W$16*(1/12)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="34">
-        <f ca="1">U16</f>
-        <v>182.01686769712308</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A10" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="35">
-        <f ca="1">T24+P24+L24+G16+G10+L3+P3+T3</f>
-        <v>151.5957844016684</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="8" t="str">
-        <f ca="1">IF(RAND()&lt;$K$7,"ON","OFF")</f>
-        <v>ON</v>
-      </c>
-      <c r="F10" s="9">
-        <f ca="1">IF(E10="OFF",0,5)</f>
-        <v>5</v>
-      </c>
-      <c r="G10" s="10">
-        <f ca="1">F10+F11+F12+F13</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="35">
-        <f ca="1">G22+G28</f>
-        <v>30.421083295454661</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="8" t="str">
-        <f ca="1">IF(RAND()&lt;$K$7,"ON","OFF")</f>
-        <v>OFF</v>
-      </c>
-      <c r="F11" s="9">
-        <f ca="1">IF(E11="OFF",0,MOD(RAND()*100,30)+0.5)</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="36">
-        <f ca="1">B9/B2</f>
-        <v>0.60672289232374355</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="8" t="str">
-        <f ca="1">IF(RAND()&lt;$K$7,"ON","OFF")</f>
-        <v>OFF</v>
-      </c>
-      <c r="F12" s="9">
-        <f ca="1">IF(E12="OFF",0,3)</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="11">
-        <f>G14*0.8</f>
-        <v>20</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="16"/>
-      <c r="O12" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="P12" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q12" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="R12" s="15"/>
-      <c r="S12" s="16"/>
-    </row>
-    <row r="13" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D13" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="8" t="str">
-        <f ca="1">IF(RAND()&lt;$K$7,"ON","OFF")</f>
-        <v>OFF</v>
-      </c>
-      <c r="F13" s="13">
-        <f ca="1">IF(E13="OFF",0,3)</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="L13" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="O13" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="P13" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q13" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="R13" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="S13" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y13" s="41" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D14" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="2">
-        <f>$B$5</f>
-        <v>0.64000000000000012</v>
-      </c>
-      <c r="G14" s="1">
-        <f>$W$16*(1/12)</f>
-        <v>25</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="J14" s="21">
-        <f ca="1">G10+G16+G22+G28</f>
-        <v>49.133793738621634</v>
-      </c>
-      <c r="K14" s="22">
-        <f>L14*0.8</f>
-        <v>100</v>
-      </c>
-      <c r="L14" s="23">
-        <f>W16*5/12</f>
-        <v>125</v>
-      </c>
-      <c r="O14" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="P14" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="21">
-        <f ca="1">L3+P3+T3+J14+Q20</f>
-        <v>182.01686769712308</v>
-      </c>
-      <c r="R14" s="22">
-        <f>S14*0.8</f>
-        <v>240</v>
-      </c>
-      <c r="S14" s="23">
-        <f>W16</f>
-        <v>300</v>
-      </c>
-      <c r="Y14" s="42"/>
-    </row>
-    <row r="15" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D15" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="U15" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="V15" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="W15" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y15" s="42"/>
-    </row>
-    <row r="16" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="8" t="str">
-        <f ca="1">IF(RAND()&lt;$K$7,"ON","OFF")</f>
-        <v>OFF</v>
-      </c>
-      <c r="F16" s="9">
-        <f ca="1">IF(E16="OFF",0,5)</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="10">
-        <f ca="1">F16+F17+F18+F19</f>
-        <v>13.712710443166975</v>
-      </c>
-      <c r="U16" s="25">
-        <f ca="1">T24++P24+L24+G28+G22+G16+G10+L3+P3+T3</f>
-        <v>182.01686769712308</v>
-      </c>
-      <c r="V16" s="26">
-        <f>W16*0.8</f>
-        <v>240</v>
-      </c>
-      <c r="W16" s="26">
-        <f>B2</f>
-        <v>300</v>
-      </c>
-      <c r="Y16" s="42"/>
-    </row>
-    <row r="17" spans="4:25" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="8" t="str">
-        <f ca="1">IF(RAND()&lt;$K$7,"ON","OFF")</f>
-        <v>ON</v>
-      </c>
-      <c r="F17" s="9">
-        <f ca="1">IF(E17="OFF",0,MOD(RAND()*100,30)+0.5)</f>
-        <v>13.712710443166975</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y17" s="43"/>
-    </row>
-    <row r="18" spans="4:25" x14ac:dyDescent="0.3">
-      <c r="D18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="8" t="str">
-        <f ca="1">IF(RAND()&lt;$K$7,"ON","OFF")</f>
-        <v>OFF</v>
-      </c>
-      <c r="F18" s="9">
-        <f ca="1">IF(E18="OFF",0,3)</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="11">
-        <f>G20*0.8</f>
-        <v>20</v>
-      </c>
-      <c r="O18" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="P18" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q18" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="R18" s="15"/>
-      <c r="S18" s="16"/>
-    </row>
-    <row r="19" spans="4:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D19" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="8" t="str">
-        <f ca="1">IF(RAND()&lt;$K$7,"ON","OFF")</f>
-        <v>OFF</v>
-      </c>
-      <c r="F19" s="13">
-        <f ca="1">IF(E19="OFF",0,3)</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="O19" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="P19" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q19" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="R19" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="S19" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="4:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D20" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="40"/>
-      <c r="F20" s="2">
-        <f>$B$5</f>
-        <v>0.64000000000000012</v>
-      </c>
-      <c r="G20" s="1">
-        <f>$W$16*(1/12)</f>
-        <v>25</v>
-      </c>
-      <c r="O20" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="P20" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="21">
-        <f ca="1">L24+P24+T24</f>
-        <v>74.880991885691643</v>
-      </c>
-      <c r="R20" s="22">
-        <f>S20*0.8</f>
-        <v>60</v>
-      </c>
-      <c r="S20" s="23">
-        <f>W16*1/4</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="4:25" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D21" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="38"/>
-      <c r="F21" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="4:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D22" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9">
-        <f>IF($B$8="ON",10,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="10">
-        <f ca="1">F22+F23+F24+F25</f>
-        <v>30.421083295454661</v>
-      </c>
-    </row>
-    <row r="23" spans="4:25" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D23" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9">
-        <f ca="1">IF($B$8="ON",IF(RAND()&lt;$F$26,MOD(RAND()*100,10),0),IF(RAND()&lt;$F$26,MOD(RAND()*100,10)*MOD(RAND()*100,8),0))</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="I23" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="J23" s="38"/>
-      <c r="K23" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="M23" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="N23" s="38"/>
-      <c r="O23" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="P23" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q23" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="R23" s="38"/>
-      <c r="S23" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="T23" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="4:25" x14ac:dyDescent="0.3">
-      <c r="D24" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9">
-        <f ca="1">IF($B$8="ON",IF(RAND()&lt;$F$26,MOD(RAND()*100,30)+18,0),IF(RAND()&lt;$F$26,MOD(RAND()*100,10)*MOD(RAND()*100,8),0))</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="11">
-        <f>G26*0.8</f>
-        <v>24</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J24" s="8" t="str">
-        <f ca="1">IF(RAND()&lt;$K$7,"ON","OFF")</f>
-        <v>OFF</v>
-      </c>
-      <c r="K24" s="9">
-        <f ca="1">IF(J24="OFF",0,5)</f>
-        <v>0</v>
-      </c>
-      <c r="L24" s="10">
-        <f ca="1">K24+K25+K26+K27</f>
-        <v>13.118516798969011</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="N24" s="8" t="str">
-        <f ca="1">IF(RAND()&lt;$K$7,"ON","OFF")</f>
-        <v>ON</v>
-      </c>
-      <c r="O24" s="9">
-        <f ca="1">IF(N24="OFF",0,5)</f>
-        <v>5</v>
-      </c>
-      <c r="P24" s="10">
-        <f ca="1">O24+O25+O26+O27</f>
-        <v>39.861560621089978</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="R24" s="8" t="str">
-        <f ca="1">IF(RAND()&lt;$K$7,"ON","OFF")</f>
-        <v>ON</v>
-      </c>
-      <c r="S24" s="9">
-        <f ca="1">IF(R24="OFF",0,5)</f>
-        <v>5</v>
-      </c>
-      <c r="T24" s="10">
-        <f ca="1">S24+S25+S26+S27</f>
-        <v>21.900914465632649</v>
-      </c>
-    </row>
-    <row r="25" spans="4:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D25" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="9">
-        <f ca="1">IF($B$8="ON",IF(RAND()&lt;$F$26,MOD(RAND()*100,10),0),IF(RAND()&lt;$F$26,MOD(RAND()*100,10)*MOD(RAND()*100,8),0))</f>
-        <v>30.421083295454661</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J25" s="8" t="str">
-        <f ca="1">IF(RAND()&lt;$K$7,"ON","OFF")</f>
-        <v>ON</v>
-      </c>
-      <c r="K25" s="9">
-        <f ca="1">IF(J25="OFF",0,MOD(RAND()*100,30)+0.5)</f>
-        <v>10.118516798969011</v>
-      </c>
-      <c r="L25" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="M25" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="N25" s="8" t="str">
-        <f ca="1">IF(RAND()&lt;$K$7,"ON","OFF")</f>
-        <v>ON</v>
-      </c>
-      <c r="O25" s="9">
-        <f ca="1">IF(N25="OFF",0,MOD(RAND()*100,30)+0.5)</f>
-        <v>28.861560621089978</v>
-      </c>
-      <c r="P25" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="R25" s="8" t="str">
-        <f ca="1">IF(RAND()&lt;$K$7,"ON","OFF")</f>
-        <v>ON</v>
-      </c>
-      <c r="S25" s="9">
-        <f ca="1">IF(R25="OFF",0,MOD(RAND()*100,30)+0.5)</f>
-        <v>10.900914465632649</v>
-      </c>
-      <c r="T25" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="4:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D26" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="40"/>
-      <c r="F26" s="2">
-        <f>$B$6</f>
-        <v>0.15999999999999998</v>
-      </c>
-      <c r="G26" s="1">
-        <f>$W$16*(1/10)</f>
-        <v>30</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J26" s="8" t="str">
-        <f ca="1">IF(RAND()&lt;$K$7,"ON","OFF")</f>
-        <v>ON</v>
-      </c>
-      <c r="K26" s="9">
-        <f ca="1">IF(J26="OFF",0,3)</f>
-        <v>3</v>
-      </c>
-      <c r="L26" s="11">
-        <f>L28*0.8</f>
-        <v>20</v>
-      </c>
-      <c r="M26" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N26" s="8" t="str">
-        <f ca="1">IF(RAND()&lt;$K$7,"ON","OFF")</f>
-        <v>ON</v>
-      </c>
-      <c r="O26" s="9">
-        <f ca="1">IF(N26="OFF",0,3)</f>
-        <v>3</v>
-      </c>
-      <c r="P26" s="11">
-        <f>P28*0.8</f>
-        <v>20</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="R26" s="8" t="str">
-        <f ca="1">IF(RAND()&lt;$K$7,"ON","OFF")</f>
-        <v>ON</v>
-      </c>
-      <c r="S26" s="9">
-        <f ca="1">IF(R26="OFF",0,3)</f>
-        <v>3</v>
-      </c>
-      <c r="T26" s="11">
-        <f>T28*0.8</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="4:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D27" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="38"/>
-      <c r="F27" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="J27" s="8" t="str">
-        <f ca="1">IF(RAND()&lt;$K$7,"ON","OFF")</f>
-        <v>OFF</v>
-      </c>
-      <c r="K27" s="13">
-        <f ca="1">IF(J27="OFF",0,3)</f>
-        <v>0</v>
-      </c>
-      <c r="L27" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="M27" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="N27" s="8" t="str">
-        <f ca="1">IF(RAND()&lt;$K$7,"ON","OFF")</f>
-        <v>ON</v>
-      </c>
-      <c r="O27" s="13">
-        <f ca="1">IF(N27="OFF",0,3)</f>
-        <v>3</v>
-      </c>
-      <c r="P27" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q27" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="R27" s="8" t="str">
-        <f ca="1">IF(RAND()&lt;$K$7,"ON","OFF")</f>
-        <v>ON</v>
-      </c>
-      <c r="S27" s="13">
-        <f ca="1">IF(R27="OFF",0,3)</f>
-        <v>3</v>
-      </c>
-      <c r="T27" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="4:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D28" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="9">
-        <f>IF($B$8="ON",10,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="10">
-        <f ca="1">F28+F29+F30+F31</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="J28" s="40"/>
-      <c r="K28" s="2">
-        <f>$B$5</f>
-        <v>0.64000000000000012</v>
-      </c>
-      <c r="L28" s="1">
-        <f>$W$16*(1/12)</f>
-        <v>25</v>
-      </c>
-      <c r="M28" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="N28" s="40"/>
-      <c r="O28" s="2">
-        <f>$B$5</f>
-        <v>0.64000000000000012</v>
-      </c>
-      <c r="P28" s="1">
-        <f>$W$16*(1/12)</f>
-        <v>25</v>
-      </c>
-      <c r="Q28" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="R28" s="40"/>
-      <c r="S28" s="2">
-        <f>$B$5</f>
-        <v>0.64000000000000012</v>
-      </c>
-      <c r="T28" s="1">
-        <f>$W$16*(1/12)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="4:25" x14ac:dyDescent="0.3">
-      <c r="D29" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="9">
-        <f ca="1">IF($B$8="ON",IF(RAND()&lt;$F$26,MOD(RAND()*100,10),0),IF(RAND()&lt;$F$26,MOD(RAND()*100,10)*MOD(RAND()*100,8),0))</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="4:25" x14ac:dyDescent="0.3">
-      <c r="D30" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="9">
-        <f ca="1">IF($B$8="ON",IF(RAND()&lt;$F$26,MOD(RAND()*100,30)+18,0),IF(RAND()&lt;$F$26,MOD(RAND()*100,10)*MOD(RAND()*100,8),0))</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="11">
-        <f>G32*0.8</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="4:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D31" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="9">
-        <f ca="1">IF($B$8="ON",IF(RAND()&lt;$F$26,MOD(RAND()*100,10),0),IF(RAND()&lt;$F$26,MOD(RAND()*100,10)*MOD(RAND()*100,8),0))</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="4:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D32" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" s="40"/>
-      <c r="F32" s="2">
-        <f>$B$6</f>
-        <v>0.15999999999999998</v>
-      </c>
-      <c r="G32" s="1">
-        <f>$W$16*(1/10)</f>
-        <v>30</v>
-      </c>
+      <c r="U29" s="1">
+        <f>$Z$14*(1/12)</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="V29" s="43"/>
+    </row>
+    <row r="30" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="44"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="46"/>
+      <c r="P30" s="46"/>
+      <c r="Q30" s="46"/>
+      <c r="R30" s="46"/>
+      <c r="S30" s="46"/>
+      <c r="T30" s="46"/>
+      <c r="U30" s="46"/>
+      <c r="V30" s="47"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="21">
-    <mergeCell ref="Y13:Y17"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="AA10:AB14"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="N8:O8"/>
     <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="D22:E22"/>
   </mergeCells>
-  <conditionalFormatting sqref="A2:C8">
+  <conditionalFormatting sqref="A3:C9">
     <cfRule type="cellIs" dxfId="53" priority="15" operator="equal">
       <formula>"ON"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12">
+  <conditionalFormatting sqref="B13">
     <cfRule type="cellIs" dxfId="52" priority="2" operator="lessThan">
       <formula>80</formula>
     </cfRule>
@@ -2521,226 +3114,226 @@
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14 F14">
+  <conditionalFormatting sqref="D9 F9">
     <cfRule type="cellIs" dxfId="49" priority="51" operator="equal">
       <formula>"ON"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20 F20">
+  <conditionalFormatting sqref="D15 F15">
     <cfRule type="cellIs" dxfId="48" priority="45" operator="equal">
       <formula>"ON"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32 F32">
+  <conditionalFormatting sqref="D27 F27">
     <cfRule type="cellIs" dxfId="47" priority="33" operator="equal">
       <formula>"ON"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10:F13">
+  <conditionalFormatting sqref="D5:F8">
     <cfRule type="cellIs" dxfId="46" priority="21" operator="equal">
       <formula>"ON"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16:F19">
+  <conditionalFormatting sqref="D11:F14">
     <cfRule type="cellIs" dxfId="45" priority="20" operator="equal">
       <formula>"ON"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22:F25 D26 F26">
+  <conditionalFormatting sqref="D17:F20 D21 F21">
     <cfRule type="cellIs" dxfId="44" priority="39" operator="equal">
       <formula>"ON"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28:F31">
+  <conditionalFormatting sqref="D23:F26">
     <cfRule type="cellIs" dxfId="43" priority="5" operator="equal">
       <formula>"ON"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I28 K28">
+  <conditionalFormatting sqref="J29 L29">
     <cfRule type="cellIs" dxfId="42" priority="57" operator="equal">
       <formula>"ON"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:K6 I7 K7">
+  <conditionalFormatting sqref="J4:L7 J8 L8">
     <cfRule type="cellIs" dxfId="41" priority="75" operator="equal">
       <formula>"ON"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24:K27">
+  <conditionalFormatting sqref="J25:L28">
     <cfRule type="cellIs" dxfId="40" priority="24" operator="equal">
       <formula>"ON"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14:L14">
+  <conditionalFormatting sqref="L15:M15">
     <cfRule type="cellIs" dxfId="39" priority="10" operator="lessThan">
-      <formula>$J$14+1</formula>
+      <formula>$K$15+1</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="38" priority="11" operator="greaterThan">
-      <formula>$J$14</formula>
+      <formula>$K$15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
+  <conditionalFormatting sqref="M6">
     <cfRule type="cellIs" dxfId="37" priority="71" operator="greaterThan">
-      <formula>L3</formula>
+      <formula>M4</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="36" priority="73" operator="lessThan">
-      <formula>L3+1</formula>
+      <formula>M4+1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L7 G14 G26 G32">
+  <conditionalFormatting sqref="M8 G9 G21 G27">
     <cfRule type="cellIs" dxfId="35" priority="70" operator="greaterThan">
-      <formula>$L$3</formula>
+      <formula>$M$4</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="34" priority="72" operator="lessThan">
-      <formula>$L$3+1</formula>
+      <formula>$M$4+1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L26">
+  <conditionalFormatting sqref="M27">
     <cfRule type="cellIs" dxfId="33" priority="53" operator="greaterThan">
-      <formula>L24</formula>
+      <formula>M25</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="32" priority="55" operator="lessThan">
-      <formula>L24+1</formula>
+      <formula>M25+1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L28">
+  <conditionalFormatting sqref="M29">
     <cfRule type="cellIs" dxfId="31" priority="18" operator="greaterThan">
-      <formula>L24</formula>
+      <formula>M25</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="30" priority="19" operator="lessThan">
-      <formula>L24+1</formula>
+      <formula>M25+1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M7 O7">
+  <conditionalFormatting sqref="N8 P8">
     <cfRule type="cellIs" dxfId="29" priority="87" operator="equal">
       <formula>"ON"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M28 O28">
+  <conditionalFormatting sqref="N29 P29">
     <cfRule type="cellIs" dxfId="28" priority="69" operator="equal">
       <formula>"ON"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:O6">
+  <conditionalFormatting sqref="N4:P7">
     <cfRule type="cellIs" dxfId="27" priority="26" operator="equal">
       <formula>"ON"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M24:O27">
+  <conditionalFormatting sqref="N25:P28">
     <cfRule type="cellIs" dxfId="26" priority="23" operator="equal">
       <formula>"ON"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P5 G12 G18 G24 G30">
+  <conditionalFormatting sqref="Q6 G7 G13 G19 G25">
     <cfRule type="cellIs" dxfId="25" priority="83" operator="greaterThan">
-      <formula>G3</formula>
+      <formula>G4</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="24" priority="85" operator="lessThan">
-      <formula>G3+1</formula>
+      <formula>G4+1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P7 G20">
+  <conditionalFormatting sqref="Q8 G15">
     <cfRule type="cellIs" dxfId="23" priority="82" operator="greaterThan">
-      <formula>G3</formula>
+      <formula>G4</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="22" priority="84" operator="lessThan">
-      <formula>G3+1</formula>
+      <formula>G4+1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P26">
+  <conditionalFormatting sqref="Q27">
     <cfRule type="cellIs" dxfId="21" priority="67" operator="lessThan">
-      <formula>P24+1</formula>
+      <formula>Q25+1</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="20" priority="65" operator="greaterThan">
-      <formula>P24</formula>
+      <formula>Q25</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P28">
+  <conditionalFormatting sqref="Q29">
     <cfRule type="cellIs" dxfId="19" priority="16" operator="greaterThan">
-      <formula>P24</formula>
+      <formula>Q25</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="18" priority="17" operator="lessThan">
-      <formula>P24+1</formula>
+      <formula>Q25+1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q7 S7">
+  <conditionalFormatting sqref="R8 T8">
     <cfRule type="cellIs" dxfId="17" priority="81" operator="equal">
       <formula>"ON"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q28 S28">
+  <conditionalFormatting sqref="R29 T29">
     <cfRule type="cellIs" dxfId="16" priority="63" operator="equal">
       <formula>"ON"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:S6">
+  <conditionalFormatting sqref="R4:T7">
     <cfRule type="cellIs" dxfId="15" priority="25" operator="equal">
       <formula>"ON"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q24:S27">
+  <conditionalFormatting sqref="R25:T28">
     <cfRule type="cellIs" dxfId="14" priority="22" operator="equal">
       <formula>"ON"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R14:S14">
+  <conditionalFormatting sqref="S15:T15">
     <cfRule type="cellIs" dxfId="13" priority="9" operator="greaterThan">
-      <formula>Q14</formula>
+      <formula>R15</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="12" priority="8" operator="lessThan">
-      <formula>Q14+1</formula>
+      <formula>R15+1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R20:S20">
+  <conditionalFormatting sqref="S21:T21">
     <cfRule type="cellIs" dxfId="11" priority="6" operator="lessThan">
-      <formula>Q20+1</formula>
+      <formula>R21+1</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="10" priority="7" operator="greaterThan">
-      <formula>Q20</formula>
+      <formula>R21</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T5">
+  <conditionalFormatting sqref="U6">
     <cfRule type="cellIs" dxfId="9" priority="79" operator="lessThan">
-      <formula>T3+1</formula>
+      <formula>U4+1</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="8" priority="77" operator="greaterThan">
-      <formula>T3</formula>
+      <formula>U4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T7">
+  <conditionalFormatting sqref="U8">
     <cfRule type="cellIs" dxfId="7" priority="78" operator="lessThan">
-      <formula>$L$3+1</formula>
+      <formula>$M$4+1</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="76" operator="greaterThan">
-      <formula>$L$3</formula>
+      <formula>$M$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T26">
+  <conditionalFormatting sqref="U27">
     <cfRule type="cellIs" dxfId="5" priority="59" operator="greaterThan">
-      <formula>T24</formula>
+      <formula>U25</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="4" priority="61" operator="lessThan">
-      <formula>T24+1</formula>
+      <formula>U25+1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T28">
+  <conditionalFormatting sqref="U29">
     <cfRule type="cellIs" dxfId="3" priority="60" operator="lessThan">
-      <formula>$L$3+1</formula>
+      <formula>$M$4+1</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="58" operator="greaterThan">
-      <formula>$L$3</formula>
+      <formula>$M$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V16:W16">
+  <conditionalFormatting sqref="Y14:Z14">
     <cfRule type="cellIs" dxfId="1" priority="13" operator="lessThan">
-      <formula>$U$16+1</formula>
+      <formula>$X$14+1</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="12" operator="greaterThan">
-      <formula>$U$16</formula>
+      <formula>$X$14</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:C7" xr:uid="{079872B3-761B-4121-BD61-FFE1FC1469AF}">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:C8" xr:uid="{079872B3-761B-4121-BD61-FFE1FC1469AF}">
       <formula1>"0,1,2,3,4,5,6,7,8"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2748,12 +3341,12 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A7B971EC-518A-45D9-B50C-C608E1ED617B}">
           <x14:formula1>
             <xm:f>Aux!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>N3:N6 J3:J6 E16:E19 N24:N27 J24:J27 R3:R6 R24:R27 E10:E13 B8:C8</xm:sqref>
+          <xm:sqref>O4:O7 K4:K7 E11:E14 O25:O28 K25:K28 S4:S7 S25:S28 E5:E8 B9:C9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2857,6 +3450,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="b1cef329-2b5a-4a44-b669-30c1412e710f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100FC769DD51E079F4D9FB4B63A10E31E3C" ma:contentTypeVersion="14" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="9c2050f57c8489c735ddd3309b8d8e1d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b1cef329-2b5a-4a44-b669-30c1412e710f" xmlns:ns4="2d5053ec-ecb4-4269-816a-1b818bb94825" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0ccb341d89c12c77bf92c1068259c56b" ns3:_="" ns4:_="">
     <xsd:import namespace="b1cef329-2b5a-4a44-b669-30c1412e710f"/>
@@ -3083,24 +3693,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D53A6F89-751B-46B0-B6D5-D5B06E5F5D7C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="b1cef329-2b5a-4a44-b669-30c1412e710f"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2d5053ec-ecb4-4269-816a-1b818bb94825"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="b1cef329-2b5a-4a44-b669-30c1412e710f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11D4E170-BE59-476B-A29E-764800468E8C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08759558-1499-4935-A913-0CF7F52514AE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3117,29 +3735,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11D4E170-BE59-476B-A29E-764800468E8C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D53A6F89-751B-46B0-B6D5-D5B06E5F5D7C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="b1cef329-2b5a-4a44-b669-30c1412e710f"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2d5053ec-ecb4-4269-816a-1b818bb94825"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/sim.xlsx
+++ b/sim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pauli\Documents\GitHub\Simulacion-Red-Foraneos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4262D4AC-F866-494B-84FC-46682B809B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A99F4E-6010-46CC-BB87-58D57DE7C640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8880" xr2:uid="{F8DD7FA3-D852-4E53-9B9C-4419DFBF8E21}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="51">
   <si>
     <t>Servidor Total Play</t>
   </si>
@@ -703,10 +703,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -756,6 +752,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1670,7 +1670,7 @@
   <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="R33" sqref="R33"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1705,44 +1705,41 @@
   <sheetData>
     <row r="1" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2">
-        <v>300</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="40"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="36"/>
     </row>
     <row r="3" spans="1:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="25" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="26">
-        <v>0.2</v>
-      </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
+        <v>75</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
       <c r="J3" s="74" t="s">
         <v>12</v>
       </c>
@@ -1773,16 +1770,16 @@
       <c r="U3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="V3" s="43"/>
+      <c r="V3" s="39"/>
     </row>
     <row r="4" spans="1:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="27">
-        <v>0.8</v>
-      </c>
-      <c r="C4" s="41"/>
+      <c r="B4" s="68">
+        <v>0.2</v>
+      </c>
+      <c r="C4" s="37"/>
       <c r="D4" s="74" t="s">
         <v>11</v>
       </c>
@@ -1793,90 +1790,90 @@
       <c r="G4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="68"/>
-      <c r="I4" s="42"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="38"/>
       <c r="J4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="34" t="str">
+      <c r="K4" s="30" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
         <v>ON</v>
       </c>
-      <c r="L4" s="35">
+      <c r="L4" s="31">
         <f ca="1">IF(K4="OFF",0,5)</f>
         <v>5</v>
       </c>
       <c r="M4" s="6">
         <f ca="1">L4+L5+L6+L7</f>
-        <v>23.438953710073406</v>
+        <v>5</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="34" t="str">
+      <c r="O4" s="30" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
-        <v>ON</v>
-      </c>
-      <c r="P4" s="35">
+        <v>OFF</v>
+      </c>
+      <c r="P4" s="31">
         <f ca="1">IF(O4="OFF",0,5)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="6">
         <f ca="1">P4+P5+P6+P7</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="S4" s="34" t="str">
+      <c r="S4" s="30" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
         <v>OFF</v>
       </c>
-      <c r="T4" s="35">
+      <c r="T4" s="31">
         <f ca="1">IF(S4="OFF",0,5)</f>
         <v>0</v>
       </c>
       <c r="U4" s="6">
         <f ca="1">T4+T5+T6+T7</f>
-        <v>25.640445533246826</v>
-      </c>
-      <c r="V4" s="43"/>
+        <v>0</v>
+      </c>
+      <c r="V4" s="39"/>
     </row>
     <row r="5" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="69">
         <v>0.8</v>
       </c>
-      <c r="C5" s="41"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="34" t="str">
+      <c r="E5" s="30" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
         <v>OFF</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="31">
         <f ca="1">IF(E5="OFF",0,5)</f>
         <v>0</v>
       </c>
       <c r="G5" s="6">
         <f ca="1">F5+F6+F7+F8</f>
-        <v>25.238944408885274</v>
-      </c>
-      <c r="H5" s="66"/>
-      <c r="I5" s="42"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="62"/>
+      <c r="I5" s="38"/>
       <c r="J5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="34" t="str">
+      <c r="K5" s="30" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
-        <v>ON</v>
-      </c>
-      <c r="L5" s="35">
+        <v>OFF</v>
+      </c>
+      <c r="L5" s="31">
         <f ca="1">IF(K5="OFF",0,MOD(RAND()*100,30)+0.5)</f>
-        <v>15.438953710073406</v>
+        <v>0</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>37</v>
@@ -1884,11 +1881,11 @@
       <c r="N5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="34" t="str">
+      <c r="O5" s="30" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
         <v>OFF</v>
       </c>
-      <c r="P5" s="35">
+      <c r="P5" s="31">
         <f ca="1">IF(O5="OFF",0,MOD(RAND()*100,30)+0.5)</f>
         <v>0</v>
       </c>
@@ -1898,126 +1895,127 @@
       <c r="R5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="S5" s="34" t="str">
+      <c r="S5" s="30" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
-        <v>ON</v>
-      </c>
-      <c r="T5" s="35">
+        <v>OFF</v>
+      </c>
+      <c r="T5" s="31">
         <f ca="1">IF(S5="OFF",0,MOD(RAND()*100,30)+0.5)</f>
-        <v>22.640445533246826</v>
+        <v>0</v>
       </c>
       <c r="U5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="V5" s="43"/>
+      <c r="V5" s="39"/>
     </row>
     <row r="6" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="71">
         <f>B4*B5</f>
-        <v>0.64000000000000012</v>
-      </c>
-      <c r="C6" s="41"/>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="C6" s="37"/>
       <c r="D6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="34" t="str">
+      <c r="E6" s="30" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
-        <v>ON</v>
-      </c>
-      <c r="F6" s="35">
+        <v>OFF</v>
+      </c>
+      <c r="F6" s="31">
         <f ca="1">IF(E6="OFF",0,MOD(RAND()*100,30)+0.5)</f>
-        <v>19.238944408885274</v>
+        <v>0</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="67"/>
-      <c r="I6" s="42"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="38"/>
       <c r="J6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="34" t="str">
+      <c r="K6" s="30" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
         <v>OFF</v>
       </c>
-      <c r="L6" s="35">
+      <c r="L6" s="31">
         <f ca="1">IF(K6="OFF",0,3)</f>
         <v>0</v>
       </c>
       <c r="M6" s="7">
         <f>M8*0.8</f>
-        <v>1.3333333333333334E-2</v>
+        <v>5</v>
       </c>
       <c r="N6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="O6" s="34" t="str">
+      <c r="O6" s="30" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
         <v>OFF</v>
       </c>
-      <c r="P6" s="35">
+      <c r="P6" s="31">
         <f ca="1">IF(O6="OFF",0,3)</f>
         <v>0</v>
       </c>
       <c r="Q6" s="7">
         <f>Q8*0.8</f>
-        <v>1.3333333333333334E-2</v>
+        <v>5</v>
       </c>
       <c r="R6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="S6" s="34" t="str">
+      <c r="S6" s="30" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
         <v>OFF</v>
       </c>
-      <c r="T6" s="35">
+      <c r="T6" s="31">
         <f ca="1">IF(S6="OFF",0,3)</f>
         <v>0</v>
       </c>
       <c r="U6" s="7">
         <f>U8*0.8</f>
-        <v>1.3333333333333334E-2</v>
-      </c>
-      <c r="V6" s="43"/>
+        <v>5</v>
+      </c>
+      <c r="V6" s="39"/>
     </row>
     <row r="7" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="30">
-        <v>0</v>
-      </c>
-      <c r="C7" s="41"/>
+      <c r="B7" s="70">
+        <f>IF(B9="ON",1,(1-B5)*B4)</f>
+        <v>3.9999999999999994E-2</v>
+      </c>
+      <c r="C7" s="37"/>
       <c r="D7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="34" t="str">
+      <c r="E7" s="30" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
-        <v>ON</v>
-      </c>
-      <c r="F7" s="35">
+        <v>OFF</v>
+      </c>
+      <c r="F7" s="31">
         <f ca="1">IF(E7="OFF",0,3)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G7" s="7">
         <f>G9*0.8</f>
-        <v>1.3333333333333334E-2</v>
-      </c>
-      <c r="H7" s="67"/>
-      <c r="I7" s="42"/>
+        <v>5</v>
+      </c>
+      <c r="H7" s="63"/>
+      <c r="I7" s="38"/>
       <c r="J7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="34" t="str">
+      <c r="K7" s="30" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
-        <v>ON</v>
+        <v>OFF</v>
       </c>
       <c r="L7" s="9">
         <f ca="1">IF(K7="OFF",0,3)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M7" s="7" t="s">
         <v>38</v>
@@ -2025,7 +2023,7 @@
       <c r="N7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="O7" s="34" t="str">
+      <c r="O7" s="30" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
         <v>OFF</v>
       </c>
@@ -2039,54 +2037,54 @@
       <c r="R7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="S7" s="34" t="str">
+      <c r="S7" s="30" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
-        <v>ON</v>
+        <v>OFF</v>
       </c>
       <c r="T7" s="9">
         <f ca="1">IF(S7="OFF",0,3)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="V7" s="43"/>
+      <c r="V7" s="39"/>
     </row>
     <row r="8" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="41"/>
+      <c r="B8" s="26">
+        <v>0</v>
+      </c>
+      <c r="C8" s="37"/>
       <c r="D8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="34" t="str">
+      <c r="E8" s="30" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
-        <v>ON</v>
+        <v>OFF</v>
       </c>
       <c r="F8" s="9">
         <f ca="1">IF(E8="OFF",0,3)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="67"/>
-      <c r="I8" s="42"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="38"/>
       <c r="J8" s="72" t="s">
         <v>39</v>
       </c>
       <c r="K8" s="73"/>
       <c r="L8" s="2">
         <f>$B$6</f>
-        <v>0.64000000000000012</v>
+        <v>0.16000000000000003</v>
       </c>
       <c r="M8" s="1">
         <f>$Z$14*(1/12)</f>
-        <v>1.6666666666666666E-2</v>
+        <v>6.25</v>
       </c>
       <c r="N8" s="72" t="s">
         <v>39</v>
@@ -2094,11 +2092,11 @@
       <c r="O8" s="73"/>
       <c r="P8" s="2">
         <f>$B$6</f>
-        <v>0.64000000000000012</v>
+        <v>0.16000000000000003</v>
       </c>
       <c r="Q8" s="1">
         <f>$Z$14*(1/12)</f>
-        <v>1.6666666666666666E-2</v>
+        <v>6.25</v>
       </c>
       <c r="R8" s="72" t="s">
         <v>39</v>
@@ -2106,13 +2104,13 @@
       <c r="S8" s="73"/>
       <c r="T8" s="2">
         <f>$B$6</f>
-        <v>0.64000000000000012</v>
+        <v>0.16000000000000003</v>
       </c>
       <c r="U8" s="1">
         <f>$Z$14*(1/12)</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="V8" s="43"/>
+        <v>6.25</v>
+      </c>
+      <c r="V8" s="39"/>
     </row>
     <row r="9" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="25" t="s">
@@ -2121,44 +2119,44 @@
       <c r="B9" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="41"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="72" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="73"/>
       <c r="F9" s="2">
         <f>$B$6</f>
-        <v>0.64000000000000012</v>
+        <v>0.16000000000000003</v>
       </c>
       <c r="G9" s="1">
         <f>$Z$14*(1/12)</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="H9" s="67"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="61"/>
-      <c r="S9" s="42"/>
-      <c r="T9" s="42"/>
-      <c r="U9" s="42"/>
-      <c r="V9" s="43"/>
+        <v>6.25</v>
+      </c>
+      <c r="H9" s="63"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="39"/>
     </row>
     <row r="10" spans="1:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="27">
         <f ca="1">X14</f>
-        <v>141.45739935999495</v>
-      </c>
-      <c r="C10" s="41"/>
+        <v>56.151128222972609</v>
+      </c>
+      <c r="C10" s="37"/>
       <c r="D10" s="74" t="s">
         <v>10</v>
       </c>
@@ -2169,21 +2167,21 @@
       <c r="G10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="67"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="42"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="43"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="39"/>
       <c r="AA10" s="76" t="s">
         <v>0</v>
       </c>
@@ -2193,42 +2191,42 @@
       <c r="A11" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11" s="28">
         <f ca="1">U25+Q25+M25+G11+G5+M4+Q4+U4</f>
-        <v>141.45739935999495</v>
-      </c>
-      <c r="C11" s="41"/>
+        <v>56.151128222972609</v>
+      </c>
+      <c r="C11" s="37"/>
       <c r="D11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="34" t="str">
+      <c r="E11" s="30" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
         <v>OFF</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="31">
         <f ca="1">IF(E11="OFF",0,5)</f>
         <v>0</v>
       </c>
       <c r="G11" s="6">
         <f ca="1">F11+F12+F13+F14</f>
-        <v>15.943012378990858</v>
-      </c>
-      <c r="H11" s="69"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="42"/>
-      <c r="T11" s="42"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="45"/>
-      <c r="Z11" s="36"/>
+        <v>9.117432018328671</v>
+      </c>
+      <c r="H11" s="65"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="41"/>
+      <c r="Z11" s="32"/>
       <c r="AA11" s="78"/>
       <c r="AB11" s="79"/>
     </row>
@@ -2236,43 +2234,43 @@
       <c r="A12" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="28">
         <f ca="1">G17+G23</f>
         <v>0</v>
       </c>
-      <c r="C12" s="41"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="34" t="str">
+      <c r="E12" s="30" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
         <v>ON</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="31">
         <f ca="1">IF(E12="OFF",0,MOD(RAND()*100,30)+0.5)</f>
-        <v>12.943012378990858</v>
+        <v>9.117432018328671</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="67"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="54"/>
-      <c r="S12" s="42"/>
-      <c r="T12" s="42"/>
-      <c r="U12" s="51"/>
-      <c r="V12" s="43"/>
-      <c r="W12" s="50"/>
-      <c r="X12" s="49"/>
-      <c r="Y12" s="49"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="47"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="45"/>
+      <c r="Y12" s="45"/>
       <c r="AA12" s="78"/>
       <c r="AB12" s="79"/>
     </row>
@@ -2280,28 +2278,28 @@
       <c r="A13" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="29">
         <f ca="1">B10/B3</f>
-        <v>707.28699679997476</v>
-      </c>
-      <c r="C13" s="41"/>
+        <v>0.74868170963963476</v>
+      </c>
+      <c r="C13" s="37"/>
       <c r="D13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="34" t="str">
+      <c r="E13" s="30" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
-        <v>ON</v>
-      </c>
-      <c r="F13" s="35">
+        <v>OFF</v>
+      </c>
+      <c r="F13" s="31">
         <f ca="1">IF(E13="OFF",0,3)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G13" s="7">
         <f>G15*0.8</f>
-        <v>1.3333333333333334E-2</v>
-      </c>
-      <c r="H13" s="67"/>
-      <c r="I13" s="42"/>
+        <v>5</v>
+      </c>
+      <c r="H13" s="63"/>
+      <c r="I13" s="38"/>
       <c r="J13" s="10" t="s">
         <v>5</v>
       </c>
@@ -2312,8 +2310,8 @@
         <v>19</v>
       </c>
       <c r="M13" s="12"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="60"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="56"/>
       <c r="P13" s="10" t="s">
         <v>1</v>
       </c>
@@ -2325,9 +2323,9 @@
       </c>
       <c r="S13" s="11"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="43"/>
-      <c r="W13" s="48"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="44"/>
       <c r="X13" s="19" t="s">
         <v>40</v>
       </c>
@@ -2341,11 +2339,11 @@
       <c r="AB13" s="79"/>
     </row>
     <row r="14" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="41"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="34" t="str">
+      <c r="E14" s="30" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
         <v>OFF</v>
       </c>
@@ -2356,87 +2354,87 @@
       <c r="G14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="67"/>
-      <c r="I14" s="42"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="38"/>
       <c r="J14" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="37" t="s">
+      <c r="K14" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="37" t="s">
+      <c r="L14" s="33" t="s">
         <v>37</v>
       </c>
       <c r="M14" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="N14" s="41"/>
-      <c r="O14" s="42"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="38"/>
       <c r="P14" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="37" t="s">
+      <c r="Q14" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="R14" s="37" t="s">
+      <c r="R14" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="S14" s="37" t="s">
+      <c r="S14" s="33" t="s">
         <v>37</v>
       </c>
       <c r="T14" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="U14" s="42"/>
-      <c r="V14" s="43"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="39"/>
       <c r="X14" s="20">
         <f ca="1">U25++Q25+M25+G23+G17+G11+G5+M4+Q4+U4</f>
-        <v>141.45739935999495</v>
+        <v>56.151128222972609</v>
       </c>
       <c r="Y14" s="21">
         <f>Z14*0.8</f>
-        <v>0.16000000000000003</v>
+        <v>60</v>
       </c>
       <c r="Z14" s="21">
         <f>B3</f>
-        <v>0.2</v>
+        <v>75</v>
       </c>
       <c r="AA14" s="80"/>
       <c r="AB14" s="81"/>
     </row>
     <row r="15" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="41"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="72" t="s">
         <v>39</v>
       </c>
       <c r="E15" s="73"/>
       <c r="F15" s="2">
         <f>$B$6</f>
-        <v>0.64000000000000012</v>
+        <v>0.16000000000000003</v>
       </c>
       <c r="G15" s="1">
         <f>$Z$14*(1/12)</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="H15" s="67"/>
-      <c r="I15" s="65"/>
+        <v>6.25</v>
+      </c>
+      <c r="H15" s="63"/>
+      <c r="I15" s="61"/>
       <c r="J15" s="15" t="s">
         <v>50</v>
       </c>
       <c r="K15" s="16">
         <f ca="1">G5+G11+G17+G23</f>
-        <v>41.181956787876132</v>
+        <v>9.117432018328671</v>
       </c>
       <c r="L15" s="17">
         <f>M15*0.8</f>
-        <v>6.6666666666666666E-2</v>
+        <v>25</v>
       </c>
       <c r="M15" s="18">
         <f>Z14*5/12</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
+        <v>31.25</v>
+      </c>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
       <c r="P15" s="15" t="s">
         <v>20</v>
       </c>
@@ -2445,21 +2443,21 @@
       </c>
       <c r="R15" s="16">
         <f ca="1">M4+Q4+U4+K15+R21</f>
-        <v>141.45739935999495</v>
+        <v>56.151128222972609</v>
       </c>
       <c r="S15" s="17">
         <f>T15*0.8</f>
-        <v>0.16000000000000003</v>
+        <v>60</v>
       </c>
       <c r="T15" s="18">
         <f>Z14</f>
-        <v>0.2</v>
-      </c>
-      <c r="U15" s="42"/>
-      <c r="V15" s="43"/>
+        <v>75</v>
+      </c>
+      <c r="U15" s="38"/>
+      <c r="V15" s="39"/>
     </row>
     <row r="16" spans="1:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="41"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="74" t="s">
         <v>30</v>
       </c>
@@ -2470,29 +2468,29 @@
       <c r="G16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="67"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="42"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="42"/>
-      <c r="V16" s="43"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="39"/>
     </row>
     <row r="17" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C17" s="41"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="34"/>
-      <c r="F17" s="35">
+      <c r="E17" s="30"/>
+      <c r="F17" s="31">
         <f>IF($B$9="ON",10,0)</f>
         <v>0</v>
       </c>
@@ -2500,73 +2498,73 @@
         <f ca="1">F17+F18+F19+F20</f>
         <v>0</v>
       </c>
-      <c r="H17" s="69"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="42"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="42"/>
-      <c r="V17" s="43"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="39"/>
     </row>
     <row r="18" spans="3:22" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="41"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="35">
+      <c r="E18" s="30"/>
+      <c r="F18" s="31">
         <f ca="1">IF($B$9="ON",IF(RAND()&lt;$F$21,MOD(RAND()*100,10),0),IF(RAND()&lt;$F$21,MOD(RAND()*100,10)*MOD(RAND()*100,8),0))</f>
         <v>0</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="67"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="42"/>
-      <c r="S18" s="47"/>
-      <c r="T18" s="42"/>
-      <c r="U18" s="42"/>
-      <c r="V18" s="43"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="39"/>
     </row>
     <row r="19" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C19" s="41"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="34"/>
-      <c r="F19" s="35">
+      <c r="E19" s="30"/>
+      <c r="F19" s="31">
         <f ca="1">IF($B$9="ON",IF(RAND()&lt;$F$21,MOD(RAND()*100,30)+18,0),IF(RAND()&lt;$F$21,MOD(RAND()*100,10)*MOD(RAND()*100,8),0))</f>
         <v>0</v>
       </c>
       <c r="G19" s="7">
         <f>G21*0.8</f>
-        <v>1.6000000000000004E-2</v>
-      </c>
-      <c r="H19" s="67"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
+        <v>6</v>
+      </c>
+      <c r="H19" s="63"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
       <c r="P19" s="10" t="s">
         <v>4</v>
       </c>
@@ -2578,70 +2576,70 @@
       </c>
       <c r="S19" s="11"/>
       <c r="T19" s="12"/>
-      <c r="U19" s="42"/>
-      <c r="V19" s="43"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="39"/>
     </row>
     <row r="20" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="41"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="35">
+      <c r="E20" s="30"/>
+      <c r="F20" s="31">
         <f ca="1">IF($B$9="ON",IF(RAND()&lt;$F$21,MOD(RAND()*100,10),0),IF(RAND()&lt;$F$21,MOD(RAND()*100,10)*MOD(RAND()*100,8),0))</f>
         <v>0</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="67"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="42"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
       <c r="P20" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="Q20" s="37" t="s">
+      <c r="Q20" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="R20" s="37" t="s">
+      <c r="R20" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="S20" s="37" t="s">
+      <c r="S20" s="33" t="s">
         <v>37</v>
       </c>
       <c r="T20" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="U20" s="42"/>
-      <c r="V20" s="43"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="39"/>
     </row>
     <row r="21" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="41"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="72" t="s">
         <v>39</v>
       </c>
       <c r="E21" s="73"/>
       <c r="F21" s="2">
         <f>$B$7</f>
-        <v>0</v>
+        <v>3.9999999999999994E-2</v>
       </c>
       <c r="G21" s="1">
         <f>$Z$14*(1/10)</f>
-        <v>2.0000000000000004E-2</v>
-      </c>
-      <c r="H21" s="67"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42"/>
+        <v>7.5</v>
+      </c>
+      <c r="H21" s="63"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
       <c r="P21" s="15" t="s">
         <v>21</v>
       </c>
@@ -2650,21 +2648,21 @@
       </c>
       <c r="R21" s="16">
         <f ca="1">M25+Q25+U25</f>
-        <v>46.196043328798595</v>
+        <v>42.033696204643938</v>
       </c>
       <c r="S21" s="17">
         <f>T21*0.8</f>
-        <v>4.0000000000000008E-2</v>
+        <v>15</v>
       </c>
       <c r="T21" s="18">
         <f>Z14*1/4</f>
-        <v>0.05</v>
-      </c>
-      <c r="U21" s="42"/>
-      <c r="V21" s="43"/>
+        <v>18.75</v>
+      </c>
+      <c r="U21" s="38"/>
+      <c r="V21" s="39"/>
     </row>
     <row r="22" spans="3:22" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="41"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="74" t="s">
         <v>29</v>
       </c>
@@ -2675,29 +2673,29 @@
       <c r="G22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H22" s="70"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="55"/>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="57"/>
-      <c r="S22" s="52"/>
-      <c r="T22" s="42"/>
-      <c r="U22" s="42"/>
-      <c r="V22" s="43"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="48"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="39"/>
     </row>
     <row r="23" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="41"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="35">
+      <c r="E23" s="30"/>
+      <c r="F23" s="31">
         <f>IF($B$9="ON",10,0)</f>
         <v>0</v>
       </c>
@@ -2705,37 +2703,37 @@
         <f ca="1">F23+F24+F25+F26</f>
         <v>0</v>
       </c>
-      <c r="H23" s="71"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="58"/>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="54"/>
-      <c r="S23" s="53"/>
-      <c r="T23" s="42"/>
-      <c r="U23" s="42"/>
-      <c r="V23" s="43"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="38"/>
+      <c r="U23" s="38"/>
+      <c r="V23" s="39"/>
     </row>
     <row r="24" spans="3:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C24" s="41"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="35">
+      <c r="E24" s="30"/>
+      <c r="F24" s="31">
         <f ca="1">IF($B$9="ON",IF(RAND()&lt;$F$21,MOD(RAND()*100,10),0),IF(RAND()&lt;$F$21,MOD(RAND()*100,10)*MOD(RAND()*100,8),0))</f>
         <v>0</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H24" s="64"/>
-      <c r="I24" s="43"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="39"/>
       <c r="J24" s="74" t="s">
         <v>9</v>
       </c>
@@ -2766,110 +2764,110 @@
       <c r="U24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="V24" s="43"/>
+      <c r="V24" s="39"/>
     </row>
     <row r="25" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C25" s="41"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="34"/>
-      <c r="F25" s="35">
+      <c r="E25" s="30"/>
+      <c r="F25" s="31">
         <f ca="1">IF($B$9="ON",IF(RAND()&lt;$F$21,MOD(RAND()*100,30)+18,0),IF(RAND()&lt;$F$21,MOD(RAND()*100,10)*MOD(RAND()*100,8),0))</f>
         <v>0</v>
       </c>
       <c r="G25" s="7">
         <f>G27*0.8</f>
-        <v>1.6000000000000004E-2</v>
-      </c>
-      <c r="H25" s="64"/>
-      <c r="I25" s="42"/>
+        <v>6</v>
+      </c>
+      <c r="H25" s="60"/>
+      <c r="I25" s="38"/>
       <c r="J25" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K25" s="34" t="str">
+      <c r="K25" s="30" t="str">
+        <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
+        <v>OFF</v>
+      </c>
+      <c r="L25" s="31">
+        <f ca="1">IF(K25="OFF",0,5)</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="6">
+        <f ca="1">L25+L26+L27+L28</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O25" s="30" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
         <v>ON</v>
       </c>
-      <c r="L25" s="35">
-        <f ca="1">IF(K25="OFF",0,5)</f>
+      <c r="P25" s="31">
+        <f ca="1">IF(O25="OFF",0,5)</f>
         <v>5</v>
       </c>
-      <c r="M25" s="6">
-        <f ca="1">L25+L26+L27+L28</f>
-        <v>10.454236669892623</v>
-      </c>
-      <c r="N25" s="5" t="s">
+      <c r="Q25" s="6">
+        <f ca="1">P25+P26+P27+P28</f>
+        <v>34.033696204643938</v>
+      </c>
+      <c r="R25" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="O25" s="34" t="str">
+      <c r="S25" s="30" t="str">
+        <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
+        <v>ON</v>
+      </c>
+      <c r="T25" s="31">
+        <f ca="1">IF(S25="OFF",0,5)</f>
+        <v>5</v>
+      </c>
+      <c r="U25" s="6">
+        <f ca="1">T25+T26+T27+T28</f>
+        <v>8</v>
+      </c>
+      <c r="V25" s="39"/>
+    </row>
+    <row r="26" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="37"/>
+      <c r="D26" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="30"/>
+      <c r="F26" s="31">
+        <f ca="1">IF($B$9="ON",IF(RAND()&lt;$F$21,MOD(RAND()*100,10),0),IF(RAND()&lt;$F$21,MOD(RAND()*100,10)*MOD(RAND()*100,8),0))</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" s="60"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26" s="30" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
         <v>OFF</v>
       </c>
-      <c r="P25" s="35">
-        <f ca="1">IF(O25="OFF",0,5)</f>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="6">
-        <f ca="1">P25+P26+P27+P28</f>
-        <v>8.5430743978617301</v>
-      </c>
-      <c r="R25" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="S25" s="34" t="str">
+      <c r="L26" s="31">
+        <f ca="1">IF(K26="OFF",0,MOD(RAND()*100,30)+0.5)</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O26" s="30" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
         <v>ON</v>
       </c>
-      <c r="T25" s="35">
-        <f ca="1">IF(S25="OFF",0,5)</f>
-        <v>5</v>
-      </c>
-      <c r="U25" s="6">
-        <f ca="1">T25+T26+T27+T28</f>
-        <v>27.198732261044242</v>
-      </c>
-      <c r="V25" s="43"/>
-    </row>
-    <row r="26" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="41"/>
-      <c r="D26" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="34"/>
-      <c r="F26" s="35">
-        <f ca="1">IF($B$9="ON",IF(RAND()&lt;$F$21,MOD(RAND()*100,10),0),IF(RAND()&lt;$F$21,MOD(RAND()*100,10)*MOD(RAND()*100,8),0))</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H26" s="64"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K26" s="34" t="str">
-        <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
-        <v>ON</v>
-      </c>
-      <c r="L26" s="35">
-        <f ca="1">IF(K26="OFF",0,MOD(RAND()*100,30)+0.5)</f>
-        <v>2.454236669892623</v>
-      </c>
-      <c r="M26" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="N26" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O26" s="34" t="str">
-        <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
-        <v>ON</v>
-      </c>
-      <c r="P26" s="35">
+      <c r="P26" s="31">
         <f ca="1">IF(O26="OFF",0,MOD(RAND()*100,30)+0.5)</f>
-        <v>8.5430743978617301</v>
+        <v>29.033696204643938</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>37</v>
@@ -2877,100 +2875,100 @@
       <c r="R26" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="S26" s="34" t="str">
+      <c r="S26" s="30" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
-        <v>ON</v>
-      </c>
-      <c r="T26" s="35">
+        <v>OFF</v>
+      </c>
+      <c r="T26" s="31">
         <f ca="1">IF(S26="OFF",0,MOD(RAND()*100,30)+0.5)</f>
-        <v>16.198732261044242</v>
+        <v>0</v>
       </c>
       <c r="U26" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="V26" s="43"/>
+      <c r="V26" s="39"/>
     </row>
     <row r="27" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="41"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="72" t="s">
         <v>39</v>
       </c>
       <c r="E27" s="73"/>
       <c r="F27" s="2">
         <f>$B$7</f>
-        <v>0</v>
+        <v>3.9999999999999994E-2</v>
       </c>
       <c r="G27" s="1">
         <f>$Z$14*(1/10)</f>
-        <v>2.0000000000000004E-2</v>
-      </c>
-      <c r="H27" s="64"/>
-      <c r="I27" s="42"/>
+        <v>7.5</v>
+      </c>
+      <c r="H27" s="60"/>
+      <c r="I27" s="38"/>
       <c r="J27" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K27" s="34" t="str">
+      <c r="K27" s="30" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
         <v>OFF</v>
       </c>
-      <c r="L27" s="35">
+      <c r="L27" s="31">
         <f ca="1">IF(K27="OFF",0,3)</f>
         <v>0</v>
       </c>
       <c r="M27" s="7">
         <f>M29*0.8</f>
-        <v>1.3333333333333334E-2</v>
+        <v>5</v>
       </c>
       <c r="N27" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="O27" s="34" t="str">
+      <c r="O27" s="30" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
         <v>OFF</v>
       </c>
-      <c r="P27" s="35">
+      <c r="P27" s="31">
         <f ca="1">IF(O27="OFF",0,3)</f>
         <v>0</v>
       </c>
       <c r="Q27" s="7">
         <f>Q29*0.8</f>
-        <v>1.3333333333333334E-2</v>
+        <v>5</v>
       </c>
       <c r="R27" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="S27" s="34" t="str">
+      <c r="S27" s="30" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
-        <v>ON</v>
-      </c>
-      <c r="T27" s="35">
+        <v>OFF</v>
+      </c>
+      <c r="T27" s="31">
         <f ca="1">IF(S27="OFF",0,3)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U27" s="7">
         <f>U29*0.8</f>
-        <v>1.3333333333333334E-2</v>
-      </c>
-      <c r="V27" s="43"/>
+        <v>5</v>
+      </c>
+      <c r="V27" s="39"/>
     </row>
     <row r="28" spans="3:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="41"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
       <c r="J28" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="K28" s="34" t="str">
+      <c r="K28" s="30" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
-        <v>ON</v>
+        <v>OFF</v>
       </c>
       <c r="L28" s="9">
         <f ca="1">IF(K28="OFF",0,3)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M28" s="7" t="s">
         <v>38</v>
@@ -2978,7 +2976,7 @@
       <c r="N28" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="O28" s="34" t="str">
+      <c r="O28" s="30" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
         <v>OFF</v>
       </c>
@@ -2992,7 +2990,7 @@
       <c r="R28" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="S28" s="34" t="str">
+      <c r="S28" s="30" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
         <v>ON</v>
       </c>
@@ -3003,27 +3001,27 @@
       <c r="U28" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="V28" s="43"/>
+      <c r="V28" s="39"/>
     </row>
     <row r="29" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="41"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
       <c r="J29" s="72" t="s">
         <v>39</v>
       </c>
       <c r="K29" s="73"/>
       <c r="L29" s="2">
         <f>$B$6</f>
-        <v>0.64000000000000012</v>
+        <v>0.16000000000000003</v>
       </c>
       <c r="M29" s="1">
         <f>$Z$14*(1/12)</f>
-        <v>1.6666666666666666E-2</v>
+        <v>6.25</v>
       </c>
       <c r="N29" s="72" t="s">
         <v>39</v>
@@ -3031,11 +3029,11 @@
       <c r="O29" s="73"/>
       <c r="P29" s="2">
         <f>$B$6</f>
-        <v>0.64000000000000012</v>
+        <v>0.16000000000000003</v>
       </c>
       <c r="Q29" s="1">
         <f>$Z$14*(1/12)</f>
-        <v>1.6666666666666666E-2</v>
+        <v>6.25</v>
       </c>
       <c r="R29" s="72" t="s">
         <v>39</v>
@@ -3043,35 +3041,35 @@
       <c r="S29" s="73"/>
       <c r="T29" s="2">
         <f>$B$6</f>
-        <v>0.64000000000000012</v>
+        <v>0.16000000000000003</v>
       </c>
       <c r="U29" s="1">
         <f>$Z$14*(1/12)</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="V29" s="43"/>
+        <v>6.25</v>
+      </c>
+      <c r="V29" s="39"/>
     </row>
     <row r="30" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="44"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="46"/>
-      <c r="N30" s="46"/>
-      <c r="O30" s="46"/>
-      <c r="P30" s="46"/>
-      <c r="Q30" s="46"/>
-      <c r="R30" s="46"/>
-      <c r="S30" s="46"/>
-      <c r="T30" s="46"/>
-      <c r="U30" s="46"/>
-      <c r="V30" s="47"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="42"/>
+      <c r="T30" s="42"/>
+      <c r="U30" s="42"/>
+      <c r="V30" s="43"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
@@ -3332,7 +3330,7 @@
       <formula>$X$14</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:C8" xr:uid="{079872B3-761B-4121-BD61-FFE1FC1469AF}">
       <formula1>"0,1,2,3,4,5,6,7,8"</formula1>
     </dataValidation>
@@ -3341,7 +3339,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A7B971EC-518A-45D9-B50C-C608E1ED617B}">
           <x14:formula1>
             <xm:f>Aux!$A$2:$A$3</xm:f>

--- a/sim.xlsx
+++ b/sim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pauli\Documents\GitHub\Simulacion-Red-Foraneos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A99F4E-6010-46CC-BB87-58D57DE7C640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B66E92-AFF5-45FC-8D9A-9FE7056D72C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8880" xr2:uid="{F8DD7FA3-D852-4E53-9B9C-4419DFBF8E21}"/>
+    <workbookView minimized="1" xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8880" xr2:uid="{F8DD7FA3-D852-4E53-9B9C-4419DFBF8E21}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -762,12 +762,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -785,6 +779,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1670,7 +1670,7 @@
   <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1731,7 +1731,7 @@
         <v>24</v>
       </c>
       <c r="B3" s="26">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="C3" s="37"/>
       <c r="D3" s="38"/>
@@ -1740,30 +1740,30 @@
       <c r="G3" s="38"/>
       <c r="H3" s="38"/>
       <c r="I3" s="38"/>
-      <c r="J3" s="74" t="s">
+      <c r="J3" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="75"/>
+      <c r="K3" s="81"/>
       <c r="L3" s="3" t="s">
         <v>35</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="74" t="s">
+      <c r="N3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="75"/>
+      <c r="O3" s="81"/>
       <c r="P3" s="3" t="s">
         <v>35</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="R3" s="74" t="s">
+      <c r="R3" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="75"/>
+      <c r="S3" s="81"/>
       <c r="T3" s="3" t="s">
         <v>35</v>
       </c>
@@ -1777,13 +1777,13 @@
         <v>43</v>
       </c>
       <c r="B4" s="68">
-        <v>0.2</v>
+        <v>0.75</v>
       </c>
       <c r="C4" s="37"/>
-      <c r="D4" s="74" t="s">
+      <c r="D4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="75"/>
+      <c r="E4" s="81"/>
       <c r="F4" s="3" t="s">
         <v>35</v>
       </c>
@@ -1797,15 +1797,15 @@
       </c>
       <c r="K4" s="30" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
-        <v>ON</v>
+        <v>OFF</v>
       </c>
       <c r="L4" s="31">
         <f ca="1">IF(K4="OFF",0,5)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M4" s="6">
         <f ca="1">L4+L5+L6+L7</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>31</v>
@@ -1820,7 +1820,7 @@
       </c>
       <c r="Q4" s="6">
         <f ca="1">P4+P5+P6+P7</f>
-        <v>0</v>
+        <v>31.768385371533725</v>
       </c>
       <c r="R4" s="5" t="s">
         <v>31</v>
@@ -1835,7 +1835,7 @@
       </c>
       <c r="U4" s="6">
         <f ca="1">T4+T5+T6+T7</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V4" s="39"/>
     </row>
@@ -1844,7 +1844,7 @@
         <v>45</v>
       </c>
       <c r="B5" s="69">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="C5" s="37"/>
       <c r="D5" s="5" t="s">
@@ -1852,15 +1852,15 @@
       </c>
       <c r="E5" s="30" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
-        <v>OFF</v>
+        <v>ON</v>
       </c>
       <c r="F5" s="31">
         <f ca="1">IF(E5="OFF",0,5)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G5" s="6">
         <f ca="1">F5+F6+F7+F8</f>
-        <v>0</v>
+        <v>16.713201304817346</v>
       </c>
       <c r="H5" s="62"/>
       <c r="I5" s="38"/>
@@ -1883,11 +1883,11 @@
       </c>
       <c r="O5" s="30" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
-        <v>OFF</v>
+        <v>ON</v>
       </c>
       <c r="P5" s="31">
         <f ca="1">IF(O5="OFF",0,MOD(RAND()*100,30)+0.5)</f>
-        <v>0</v>
+        <v>28.768385371533725</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>37</v>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="B6" s="71">
         <f>B4*B5</f>
-        <v>0.16000000000000003</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="5" t="s">
@@ -1922,11 +1922,11 @@
       </c>
       <c r="E6" s="30" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
-        <v>OFF</v>
+        <v>ON</v>
       </c>
       <c r="F6" s="31">
         <f ca="1">IF(E6="OFF",0,MOD(RAND()*100,30)+0.5)</f>
-        <v>0</v>
+        <v>8.7132013048173462</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>37</v>
@@ -1946,37 +1946,37 @@
       </c>
       <c r="M6" s="7">
         <f>M8*0.8</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="N6" s="5" t="s">
         <v>33</v>
       </c>
       <c r="O6" s="30" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
-        <v>OFF</v>
+        <v>ON</v>
       </c>
       <c r="P6" s="31">
         <f ca="1">IF(O6="OFF",0,3)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q6" s="7">
         <f>Q8*0.8</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="R6" s="5" t="s">
         <v>33</v>
       </c>
       <c r="S6" s="30" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
-        <v>OFF</v>
+        <v>ON</v>
       </c>
       <c r="T6" s="31">
         <f ca="1">IF(S6="OFF",0,3)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U6" s="7">
         <f>U8*0.8</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="V6" s="39"/>
     </row>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="B7" s="70">
         <f>IF(B9="ON",1,(1-B5)*B4)</f>
-        <v>3.9999999999999994E-2</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="5" t="s">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="G7" s="7">
         <f>G9*0.8</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H7" s="63"/>
       <c r="I7" s="38"/>
@@ -2063,11 +2063,11 @@
       </c>
       <c r="E8" s="30" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
-        <v>OFF</v>
+        <v>ON</v>
       </c>
       <c r="F8" s="9">
         <f ca="1">IF(E8="OFF",0,3)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>38</v>
@@ -2080,11 +2080,11 @@
       <c r="K8" s="73"/>
       <c r="L8" s="2">
         <f>$B$6</f>
-        <v>0.16000000000000003</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="M8" s="1">
         <f>$Z$14*(1/12)</f>
-        <v>6.25</v>
+        <v>25</v>
       </c>
       <c r="N8" s="72" t="s">
         <v>39</v>
@@ -2092,11 +2092,11 @@
       <c r="O8" s="73"/>
       <c r="P8" s="2">
         <f>$B$6</f>
-        <v>0.16000000000000003</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="Q8" s="1">
         <f>$Z$14*(1/12)</f>
-        <v>6.25</v>
+        <v>25</v>
       </c>
       <c r="R8" s="72" t="s">
         <v>39</v>
@@ -2104,11 +2104,11 @@
       <c r="S8" s="73"/>
       <c r="T8" s="2">
         <f>$B$6</f>
-        <v>0.16000000000000003</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="U8" s="1">
         <f>$Z$14*(1/12)</f>
-        <v>6.25</v>
+        <v>25</v>
       </c>
       <c r="V8" s="39"/>
     </row>
@@ -2126,11 +2126,11 @@
       <c r="E9" s="73"/>
       <c r="F9" s="2">
         <f>$B$6</f>
-        <v>0.16000000000000003</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="G9" s="1">
         <f>$Z$14*(1/12)</f>
-        <v>6.25</v>
+        <v>25</v>
       </c>
       <c r="H9" s="63"/>
       <c r="I9" s="38"/>
@@ -2154,13 +2154,13 @@
       </c>
       <c r="B10" s="27">
         <f ca="1">X14</f>
-        <v>56.151128222972609</v>
+        <v>143.54048498700527</v>
       </c>
       <c r="C10" s="37"/>
-      <c r="D10" s="74" t="s">
+      <c r="D10" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="75"/>
+      <c r="E10" s="81"/>
       <c r="F10" s="3" t="s">
         <v>35</v>
       </c>
@@ -2182,10 +2182,10 @@
       <c r="T10" s="38"/>
       <c r="U10" s="38"/>
       <c r="V10" s="39"/>
-      <c r="AA10" s="76" t="s">
+      <c r="AA10" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="AB10" s="77"/>
+      <c r="AB10" s="75"/>
     </row>
     <row r="11" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
@@ -2193,7 +2193,7 @@
       </c>
       <c r="B11" s="28">
         <f ca="1">U25+Q25+M25+G11+G5+M4+Q4+U4</f>
-        <v>56.151128222972609</v>
+        <v>73.481586676351071</v>
       </c>
       <c r="C11" s="37"/>
       <c r="D11" s="5" t="s">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="G11" s="6">
         <f ca="1">F11+F12+F13+F14</f>
-        <v>9.117432018328671</v>
+        <v>3</v>
       </c>
       <c r="H11" s="65"/>
       <c r="I11" s="38"/>
@@ -2227,8 +2227,8 @@
       <c r="U11" s="38"/>
       <c r="V11" s="41"/>
       <c r="Z11" s="32"/>
-      <c r="AA11" s="78"/>
-      <c r="AB11" s="79"/>
+      <c r="AA11" s="76"/>
+      <c r="AB11" s="77"/>
     </row>
     <row r="12" spans="1:28" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="23" t="s">
@@ -2236,7 +2236,7 @@
       </c>
       <c r="B12" s="28">
         <f ca="1">G17+G23</f>
-        <v>0</v>
+        <v>70.0588983106542</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="5" t="s">
@@ -2244,11 +2244,11 @@
       </c>
       <c r="E12" s="30" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
-        <v>ON</v>
+        <v>OFF</v>
       </c>
       <c r="F12" s="31">
         <f ca="1">IF(E12="OFF",0,MOD(RAND()*100,30)+0.5)</f>
-        <v>9.117432018328671</v>
+        <v>0</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>37</v>
@@ -2271,8 +2271,8 @@
       <c r="W12" s="46"/>
       <c r="X12" s="45"/>
       <c r="Y12" s="45"/>
-      <c r="AA12" s="78"/>
-      <c r="AB12" s="79"/>
+      <c r="AA12" s="76"/>
+      <c r="AB12" s="77"/>
     </row>
     <row r="13" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="24" t="s">
@@ -2280,7 +2280,7 @@
       </c>
       <c r="B13" s="29">
         <f ca="1">B10/B3</f>
-        <v>0.74868170963963476</v>
+        <v>0.47846828329001756</v>
       </c>
       <c r="C13" s="37"/>
       <c r="D13" s="5" t="s">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="G13" s="7">
         <f>G15*0.8</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H13" s="63"/>
       <c r="I13" s="38"/>
@@ -2335,8 +2335,8 @@
       <c r="Z13" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AA13" s="78"/>
-      <c r="AB13" s="79"/>
+      <c r="AA13" s="76"/>
+      <c r="AB13" s="77"/>
     </row>
     <row r="14" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C14" s="37"/>
@@ -2345,11 +2345,11 @@
       </c>
       <c r="E14" s="30" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
-        <v>OFF</v>
+        <v>ON</v>
       </c>
       <c r="F14" s="9">
         <f ca="1">IF(E14="OFF",0,3)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>38</v>
@@ -2389,18 +2389,18 @@
       <c r="V14" s="39"/>
       <c r="X14" s="20">
         <f ca="1">U25++Q25+M25+G23+G17+G11+G5+M4+Q4+U4</f>
-        <v>56.151128222972609</v>
+        <v>143.54048498700527</v>
       </c>
       <c r="Y14" s="21">
         <f>Z14*0.8</f>
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="Z14" s="21">
         <f>B3</f>
-        <v>75</v>
-      </c>
-      <c r="AA14" s="80"/>
-      <c r="AB14" s="81"/>
+        <v>300</v>
+      </c>
+      <c r="AA14" s="78"/>
+      <c r="AB14" s="79"/>
     </row>
     <row r="15" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C15" s="37"/>
@@ -2410,11 +2410,11 @@
       <c r="E15" s="73"/>
       <c r="F15" s="2">
         <f>$B$6</f>
-        <v>0.16000000000000003</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="G15" s="1">
         <f>$Z$14*(1/12)</f>
-        <v>6.25</v>
+        <v>25</v>
       </c>
       <c r="H15" s="63"/>
       <c r="I15" s="61"/>
@@ -2423,15 +2423,15 @@
       </c>
       <c r="K15" s="16">
         <f ca="1">G5+G11+G17+G23</f>
-        <v>9.117432018328671</v>
+        <v>89.772099615471546</v>
       </c>
       <c r="L15" s="17">
         <f>M15*0.8</f>
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="M15" s="18">
         <f>Z14*5/12</f>
-        <v>31.25</v>
+        <v>125</v>
       </c>
       <c r="N15" s="38"/>
       <c r="O15" s="38"/>
@@ -2443,25 +2443,25 @@
       </c>
       <c r="R15" s="16">
         <f ca="1">M4+Q4+U4+K15+R21</f>
-        <v>56.151128222972609</v>
+        <v>143.54048498700527</v>
       </c>
       <c r="S15" s="17">
         <f>T15*0.8</f>
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="T15" s="18">
         <f>Z14</f>
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="U15" s="38"/>
       <c r="V15" s="39"/>
     </row>
     <row r="16" spans="1:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C16" s="37"/>
-      <c r="D16" s="74" t="s">
+      <c r="D16" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="75"/>
+      <c r="E16" s="81"/>
       <c r="F16" s="3" t="s">
         <v>35</v>
       </c>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="G17" s="6">
         <f ca="1">F17+F18+F19+F20</f>
-        <v>0</v>
+        <v>67.581724107798877</v>
       </c>
       <c r="H17" s="65"/>
       <c r="I17" s="38"/>
@@ -2555,7 +2555,7 @@
       </c>
       <c r="G19" s="7">
         <f>G21*0.8</f>
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="H19" s="63"/>
       <c r="I19" s="38"/>
@@ -2587,7 +2587,7 @@
       <c r="E20" s="30"/>
       <c r="F20" s="31">
         <f ca="1">IF($B$9="ON",IF(RAND()&lt;$F$21,MOD(RAND()*100,10),0),IF(RAND()&lt;$F$21,MOD(RAND()*100,10)*MOD(RAND()*100,8),0))</f>
-        <v>0</v>
+        <v>67.581724107798877</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>38</v>
@@ -2626,11 +2626,11 @@
       <c r="E21" s="73"/>
       <c r="F21" s="2">
         <f>$B$7</f>
-        <v>3.9999999999999994E-2</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="G21" s="1">
         <f>$Z$14*(1/10)</f>
-        <v>7.5</v>
+        <v>30</v>
       </c>
       <c r="H21" s="63"/>
       <c r="I21" s="38"/>
@@ -2648,25 +2648,25 @@
       </c>
       <c r="R21" s="16">
         <f ca="1">M25+Q25+U25</f>
-        <v>42.033696204643938</v>
+        <v>19</v>
       </c>
       <c r="S21" s="17">
         <f>T21*0.8</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="T21" s="18">
         <f>Z14*1/4</f>
-        <v>18.75</v>
+        <v>75</v>
       </c>
       <c r="U21" s="38"/>
       <c r="V21" s="39"/>
     </row>
     <row r="22" spans="3:22" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C22" s="37"/>
-      <c r="D22" s="74" t="s">
+      <c r="D22" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="75"/>
+      <c r="E22" s="81"/>
       <c r="F22" s="3" t="s">
         <v>35</v>
       </c>
@@ -2701,7 +2701,7 @@
       </c>
       <c r="G23" s="6">
         <f ca="1">F23+F24+F25+F26</f>
-        <v>0</v>
+        <v>2.4771742028553252</v>
       </c>
       <c r="H23" s="67"/>
       <c r="I23" s="38"/>
@@ -2727,37 +2727,37 @@
       <c r="E24" s="30"/>
       <c r="F24" s="31">
         <f ca="1">IF($B$9="ON",IF(RAND()&lt;$F$21,MOD(RAND()*100,10),0),IF(RAND()&lt;$F$21,MOD(RAND()*100,10)*MOD(RAND()*100,8),0))</f>
-        <v>0</v>
+        <v>2.4771742028553252</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>37</v>
       </c>
       <c r="H24" s="60"/>
       <c r="I24" s="39"/>
-      <c r="J24" s="74" t="s">
+      <c r="J24" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="K24" s="75"/>
+      <c r="K24" s="81"/>
       <c r="L24" s="3" t="s">
         <v>35</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="N24" s="74" t="s">
+      <c r="N24" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="O24" s="75"/>
+      <c r="O24" s="81"/>
       <c r="P24" s="3" t="s">
         <v>35</v>
       </c>
       <c r="Q24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="R24" s="74" t="s">
+      <c r="R24" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="S24" s="75"/>
+      <c r="S24" s="81"/>
       <c r="T24" s="3" t="s">
         <v>35</v>
       </c>
@@ -2778,7 +2778,7 @@
       </c>
       <c r="G25" s="7">
         <f>G27*0.8</f>
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="H25" s="60"/>
       <c r="I25" s="38"/>
@@ -2787,30 +2787,30 @@
       </c>
       <c r="K25" s="30" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
-        <v>OFF</v>
+        <v>ON</v>
       </c>
       <c r="L25" s="31">
         <f ca="1">IF(K25="OFF",0,5)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M25" s="6">
         <f ca="1">L25+L26+L27+L28</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N25" s="5" t="s">
         <v>31</v>
       </c>
       <c r="O25" s="30" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
-        <v>ON</v>
+        <v>OFF</v>
       </c>
       <c r="P25" s="31">
         <f ca="1">IF(O25="OFF",0,5)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="6">
         <f ca="1">P25+P26+P27+P28</f>
-        <v>34.033696204643938</v>
+        <v>6</v>
       </c>
       <c r="R25" s="5" t="s">
         <v>31</v>
@@ -2825,7 +2825,7 @@
       </c>
       <c r="U25" s="6">
         <f ca="1">T25+T26+T27+T28</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V25" s="39"/>
     </row>
@@ -2863,11 +2863,11 @@
       </c>
       <c r="O26" s="30" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
-        <v>ON</v>
+        <v>OFF</v>
       </c>
       <c r="P26" s="31">
         <f ca="1">IF(O26="OFF",0,MOD(RAND()*100,30)+0.5)</f>
-        <v>29.033696204643938</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>37</v>
@@ -2896,11 +2896,11 @@
       <c r="E27" s="73"/>
       <c r="F27" s="2">
         <f>$B$7</f>
-        <v>3.9999999999999994E-2</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="G27" s="1">
         <f>$Z$14*(1/10)</f>
-        <v>7.5</v>
+        <v>30</v>
       </c>
       <c r="H27" s="60"/>
       <c r="I27" s="38"/>
@@ -2917,22 +2917,22 @@
       </c>
       <c r="M27" s="7">
         <f>M29*0.8</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="N27" s="5" t="s">
         <v>33</v>
       </c>
       <c r="O27" s="30" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
-        <v>OFF</v>
+        <v>ON</v>
       </c>
       <c r="P27" s="31">
         <f ca="1">IF(O27="OFF",0,3)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q27" s="7">
         <f>Q29*0.8</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="R27" s="5" t="s">
         <v>33</v>
@@ -2947,7 +2947,7 @@
       </c>
       <c r="U27" s="7">
         <f>U29*0.8</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="V27" s="39"/>
     </row>
@@ -2964,11 +2964,11 @@
       </c>
       <c r="K28" s="30" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
-        <v>OFF</v>
+        <v>ON</v>
       </c>
       <c r="L28" s="9">
         <f ca="1">IF(K28="OFF",0,3)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M28" s="7" t="s">
         <v>38</v>
@@ -2978,11 +2978,11 @@
       </c>
       <c r="O28" s="30" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
-        <v>OFF</v>
+        <v>ON</v>
       </c>
       <c r="P28" s="9">
         <f ca="1">IF(O28="OFF",0,3)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>38</v>
@@ -2992,11 +2992,11 @@
       </c>
       <c r="S28" s="30" t="str">
         <f ca="1">IF(RAND()&lt;$L$8,"ON","OFF")</f>
-        <v>ON</v>
+        <v>OFF</v>
       </c>
       <c r="T28" s="9">
         <f ca="1">IF(S28="OFF",0,3)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U28" s="7" t="s">
         <v>38</v>
@@ -3017,11 +3017,11 @@
       <c r="K29" s="73"/>
       <c r="L29" s="2">
         <f>$B$6</f>
-        <v>0.16000000000000003</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="M29" s="1">
         <f>$Z$14*(1/12)</f>
-        <v>6.25</v>
+        <v>25</v>
       </c>
       <c r="N29" s="72" t="s">
         <v>39</v>
@@ -3029,11 +3029,11 @@
       <c r="O29" s="73"/>
       <c r="P29" s="2">
         <f>$B$6</f>
-        <v>0.16000000000000003</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="Q29" s="1">
         <f>$Z$14*(1/12)</f>
-        <v>6.25</v>
+        <v>25</v>
       </c>
       <c r="R29" s="72" t="s">
         <v>39</v>
@@ -3041,11 +3041,11 @@
       <c r="S29" s="73"/>
       <c r="T29" s="2">
         <f>$B$6</f>
-        <v>0.16000000000000003</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="U29" s="1">
         <f>$Z$14*(1/12)</f>
-        <v>6.25</v>
+        <v>25</v>
       </c>
       <c r="V29" s="39"/>
     </row>
@@ -3074,6 +3074,11 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="21">
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="AA10:AB14"/>
     <mergeCell ref="R3:S3"/>
@@ -3090,11 +3095,6 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="D22:E22"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:C9">
     <cfRule type="cellIs" dxfId="53" priority="15" operator="equal">
@@ -3448,23 +3448,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="b1cef329-2b5a-4a44-b669-30c1412e710f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100FC769DD51E079F4D9FB4B63A10E31E3C" ma:contentTypeVersion="14" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="9c2050f57c8489c735ddd3309b8d8e1d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b1cef329-2b5a-4a44-b669-30c1412e710f" xmlns:ns4="2d5053ec-ecb4-4269-816a-1b818bb94825" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0ccb341d89c12c77bf92c1068259c56b" ns3:_="" ns4:_="">
     <xsd:import namespace="b1cef329-2b5a-4a44-b669-30c1412e710f"/>
@@ -3691,32 +3674,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D53A6F89-751B-46B0-B6D5-D5B06E5F5D7C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="b1cef329-2b5a-4a44-b669-30c1412e710f"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2d5053ec-ecb4-4269-816a-1b818bb94825"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11D4E170-BE59-476B-A29E-764800468E8C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="b1cef329-2b5a-4a44-b669-30c1412e710f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08759558-1499-4935-A913-0CF7F52514AE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3733,4 +3708,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11D4E170-BE59-476B-A29E-764800468E8C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D53A6F89-751B-46B0-B6D5-D5B06E5F5D7C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="b1cef329-2b5a-4a44-b669-30c1412e710f"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2d5053ec-ecb4-4269-816a-1b818bb94825"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>